--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.7989255858889</v>
+        <v>10.79892558588892</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.323421059175057</v>
+        <v>6.323421059175081</v>
       </c>
       <c r="E2">
-        <v>17.6641673470949</v>
+        <v>17.66416734709496</v>
       </c>
       <c r="F2">
-        <v>53.08039187306112</v>
+        <v>53.08039187306125</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>15.71775108388392</v>
+        <v>15.7177510838838</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.181254276752</v>
+        <v>41.18125427675209</v>
       </c>
       <c r="K2">
-        <v>24.20727853783109</v>
+        <v>24.20727853783114</v>
       </c>
       <c r="L2">
-        <v>20.42518657074735</v>
+        <v>20.4251865707474</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.07524473147407</v>
+        <v>10.07524473147409</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.998453857668919</v>
+        <v>5.998453857668934</v>
       </c>
       <c r="E3">
-        <v>16.49894508447832</v>
+        <v>16.49894508447823</v>
       </c>
       <c r="F3">
-        <v>49.16310191842099</v>
+        <v>49.16310191842108</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>15.87070445498795</v>
+        <v>15.87070445498798</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>38.09610312487376</v>
       </c>
       <c r="K3">
-        <v>22.34758212755664</v>
+        <v>22.34758212755668</v>
       </c>
       <c r="L3">
-        <v>18.94132493727888</v>
+        <v>18.9413249372789</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.607885912944585</v>
+        <v>9.607885912944665</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.808539436379495</v>
+        <v>5.808539436379545</v>
       </c>
       <c r="E4">
-        <v>15.76820019815489</v>
+        <v>15.76820019815504</v>
       </c>
       <c r="F4">
-        <v>46.81910574708454</v>
+        <v>46.81910574708471</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15.98857901936977</v>
+        <v>15.9885790193697</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>36.13133842663612</v>
+        <v>36.1313384266363</v>
       </c>
       <c r="K4">
-        <v>21.16508515765623</v>
+        <v>21.16508515765632</v>
       </c>
       <c r="L4">
-        <v>17.99456007285244</v>
+        <v>17.99456007285253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.411543722699079</v>
+        <v>9.411543722699104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.733388746815653</v>
+        <v>5.733388746815614</v>
       </c>
       <c r="E5">
-        <v>15.46603776926842</v>
+        <v>15.46603776926845</v>
       </c>
       <c r="F5">
         <v>45.85737421828634</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>35.3117704609308</v>
+        <v>35.31177046093082</v>
       </c>
       <c r="K5">
-        <v>20.67226375098369</v>
+        <v>20.67226375098367</v>
       </c>
       <c r="L5">
         <v>17.59929165785803</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.378582843796417</v>
+        <v>9.378582843796355</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.721040947171995</v>
+        <v>5.721040947172009</v>
       </c>
       <c r="E6">
-        <v>15.41558639899446</v>
+        <v>15.41558639899431</v>
       </c>
       <c r="F6">
-        <v>45.69726651875561</v>
+        <v>45.69726651875555</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16.05117203403893</v>
+        <v>16.05117203403904</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>35.17450820070797</v>
+        <v>35.17450820070789</v>
       </c>
       <c r="K6">
-        <v>20.58975088773056</v>
+        <v>20.58975088773058</v>
       </c>
       <c r="L6">
         <v>17.53307385739377</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.605261944289751</v>
+        <v>9.60526194428971</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.807517059268383</v>
+        <v>5.807517059268367</v>
       </c>
       <c r="E7">
-        <v>15.76414346556883</v>
+        <v>15.76414346556871</v>
       </c>
       <c r="F7">
-        <v>46.80616284566243</v>
+        <v>46.8061628456625</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15.98927840130417</v>
+        <v>15.9892784013042</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>36.12036345940741</v>
       </c>
       <c r="K7">
-        <v>21.15848399182842</v>
+        <v>21.15848399182851</v>
       </c>
       <c r="L7">
-        <v>17.98926821120351</v>
+        <v>17.98926821120357</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.55411059638203</v>
+        <v>10.55411059638208</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.209255424142638</v>
+        <v>6.209255424142625</v>
       </c>
       <c r="E8">
-        <v>17.26520908006495</v>
+        <v>17.26520908006478</v>
       </c>
       <c r="F8">
-        <v>51.70508301675394</v>
+        <v>51.7050830167539</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15.76509923998048</v>
+        <v>15.76509923998041</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.13134302982577</v>
+        <v>40.13134302982576</v>
       </c>
       <c r="K8">
-        <v>23.57401586277345</v>
+        <v>23.57401586277347</v>
       </c>
       <c r="L8">
-        <v>19.92063662435714</v>
+        <v>19.92063662435717</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.23780583119485</v>
+        <v>12.23780583119486</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.088945181256539</v>
+        <v>7.088945181256552</v>
       </c>
       <c r="E9">
-        <v>20.12012734657321</v>
+        <v>20.12012734657329</v>
       </c>
       <c r="F9">
-        <v>61.56799198037777</v>
+        <v>61.5679919803776</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15.55025431575582</v>
+        <v>15.55025431575583</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.50376980408719</v>
+        <v>47.5037698040872</v>
       </c>
       <c r="K9">
-        <v>28.02855774214786</v>
+        <v>28.02855774214778</v>
       </c>
       <c r="L9">
-        <v>23.45201502913151</v>
+        <v>23.45201502913145</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.37683454463722</v>
+        <v>13.37683454463723</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.019474420075021</v>
+        <v>8.019474420075104</v>
       </c>
       <c r="E10">
-        <v>22.22788421859017</v>
+        <v>22.22788421859037</v>
       </c>
       <c r="F10">
-        <v>68.83911798507351</v>
+        <v>68.83911798507391</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.58891049731712</v>
+        <v>15.58891049731709</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>52.73991886649427</v>
+        <v>52.73991886649455</v>
       </c>
       <c r="K10">
-        <v>31.20175868073739</v>
+        <v>31.20175868073749</v>
       </c>
       <c r="L10">
-        <v>25.93935834251251</v>
+        <v>25.93935834251261</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.87680224760718</v>
+        <v>13.87680224760716</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.456285155166945</v>
+        <v>8.456285155167</v>
       </c>
       <c r="E11">
-        <v>23.21149406222209</v>
+        <v>23.2114940622222</v>
       </c>
       <c r="F11">
-        <v>72.21391547774579</v>
+        <v>72.21391547774604</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.66688479617771</v>
+        <v>15.66688479617773</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>55.12218768275275</v>
+        <v>55.12218768275285</v>
       </c>
       <c r="K11">
-        <v>32.64725191061149</v>
+        <v>32.64725191061158</v>
       </c>
       <c r="L11">
-        <v>27.06351774937173</v>
+        <v>27.06351774937177</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.06386937210356</v>
+        <v>14.06386937210351</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.624849580880165</v>
+        <v>8.624849580880113</v>
       </c>
       <c r="E12">
         <v>23.59039005565154</v>
       </c>
       <c r="F12">
-        <v>73.50931171519018</v>
+        <v>73.50931171519024</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15.70708147061025</v>
+        <v>15.70708147061016</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>56.02916602197935</v>
+        <v>56.02916602197936</v>
       </c>
       <c r="K12">
         <v>33.19777124434157</v>
       </c>
       <c r="L12">
-        <v>27.49007836382196</v>
+        <v>27.49007836382195</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.02367467835387</v>
+        <v>14.02367467835383</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.588381424299591</v>
+        <v>8.588381424299634</v>
       </c>
       <c r="E13">
-        <v>23.50844392169587</v>
+        <v>23.50844392169591</v>
       </c>
       <c r="F13">
-        <v>73.22939179965434</v>
+        <v>73.22939179965439</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15.69791200217805</v>
+        <v>15.69791200217807</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>55.83351879049218</v>
+        <v>55.83351879049219</v>
       </c>
       <c r="K13">
         <v>33.07901015373319</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.89223520595778</v>
+        <v>13.89223520595781</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.470081196877594</v>
+        <v>8.470081196877549</v>
       </c>
       <c r="E14">
-        <v>23.24251673692487</v>
+        <v>23.24251673692492</v>
       </c>
       <c r="F14">
-        <v>72.32008346537602</v>
+        <v>72.32008346537616</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15.66996454888731</v>
+        <v>15.66996454888729</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>55.19667366514069</v>
+        <v>55.19667366514081</v>
       </c>
       <c r="K14">
-        <v>32.69246031913344</v>
+        <v>32.69246031913352</v>
       </c>
       <c r="L14">
-        <v>27.098580234083</v>
+        <v>27.09858023408306</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.398073576702885</v>
+        <v>8.398073576702892</v>
       </c>
       <c r="E15">
-        <v>23.08056983364457</v>
+        <v>23.08056983364462</v>
       </c>
       <c r="F15">
         <v>71.76565914244243</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.65430396105691</v>
+        <v>15.65430396105684</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>54.80739502028564</v>
+        <v>54.80739502028562</v>
       </c>
       <c r="K15">
-        <v>32.45619926224598</v>
+        <v>32.45619926224595</v>
       </c>
       <c r="L15">
-        <v>26.91527669106071</v>
+        <v>26.91527669106068</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.34382243568284</v>
+        <v>13.34382243568289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.991293112227892</v>
+        <v>7.9912931122278</v>
       </c>
       <c r="E16">
-        <v>22.16432165872953</v>
+        <v>22.16432165872944</v>
       </c>
       <c r="F16">
-        <v>68.62051777718808</v>
+        <v>68.62051777718787</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.58518748910151</v>
+        <v>15.58518748910145</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>52.58461180821534</v>
+        <v>52.5846118082152</v>
       </c>
       <c r="K16">
-        <v>31.10755412630181</v>
+        <v>31.1075541263017</v>
       </c>
       <c r="L16">
-        <v>25.86589339170283</v>
+        <v>25.8658933917028</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.05251495426962</v>
+        <v>13.05251495426965</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.745935683874744</v>
+        <v>7.745935683874736</v>
       </c>
       <c r="E17">
-        <v>21.6102927665207</v>
+        <v>21.61029276652064</v>
       </c>
       <c r="F17">
         <v>66.71294584182665</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.55950615234675</v>
+        <v>15.55950615234679</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>51.22400970327961</v>
+        <v>51.22400970327958</v>
       </c>
       <c r="K17">
         <v>30.28245134039732</v>
       </c>
       <c r="L17">
-        <v>25.22141967156145</v>
+        <v>25.22141967156142</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88322483614903</v>
+        <v>12.88322483614904</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.605991183177268</v>
+        <v>7.605991183177312</v>
       </c>
       <c r="E18">
-        <v>21.29374183649065</v>
+        <v>21.2937418364906</v>
       </c>
       <c r="F18">
-        <v>65.6214804349321</v>
+        <v>65.62148043493207</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15.55027474261786</v>
+        <v>15.55027474261782</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>50.44109117462713</v>
       </c>
       <c r="K18">
-        <v>29.80784493266187</v>
+        <v>29.80784493266189</v>
       </c>
       <c r="L18">
         <v>24.84989861344046</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.82559855956316</v>
+        <v>12.8255985595631</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.558780808742458</v>
+        <v>7.558780808742484</v>
       </c>
       <c r="E19">
         <v>21.18685551623067</v>
       </c>
       <c r="F19">
-        <v>65.25271903220857</v>
+        <v>65.25271903220846</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15.54804848426644</v>
+        <v>15.54804848426639</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>50.17583029862346</v>
+        <v>50.17583029862338</v>
       </c>
       <c r="K19">
-        <v>29.64707468424623</v>
+        <v>29.64707468424618</v>
       </c>
       <c r="L19">
-        <v>24.72391597285727</v>
+        <v>24.72391597285723</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.08370276349181</v>
+        <v>13.08370276349178</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.771925050255018</v>
+        <v>7.771925050254924</v>
       </c>
       <c r="E20">
-        <v>21.66903422369062</v>
+        <v>21.66903422369055</v>
       </c>
       <c r="F20">
-        <v>66.9153709106652</v>
+        <v>66.91537091066525</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.56165393431601</v>
+        <v>15.56165393431595</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>51.36885338606987</v>
+        <v>51.36885338606988</v>
       </c>
       <c r="K20">
-        <v>30.37027038337082</v>
+        <v>30.37027038337086</v>
       </c>
       <c r="L20">
-        <v>25.290099775895</v>
+        <v>25.29009977589502</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.9309000765742</v>
+        <v>13.93090007657411</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.50473121028849</v>
+        <v>8.504731210288465</v>
       </c>
       <c r="E21">
-        <v>23.32042300542936</v>
+        <v>23.32042300542945</v>
       </c>
       <c r="F21">
-        <v>72.58661876776395</v>
+        <v>72.58661876776384</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15.67786514935382</v>
+        <v>15.67786514935381</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>55.38355091974</v>
+        <v>55.38355091973997</v>
       </c>
       <c r="K21">
-        <v>32.80588601703672</v>
+        <v>32.80588601703671</v>
       </c>
       <c r="L21">
-        <v>27.18652405573645</v>
+        <v>27.18652405573641</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,31 +1178,31 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.003006210048925</v>
+        <v>9.003006210048895</v>
       </c>
       <c r="E22">
-        <v>24.4394540831564</v>
+        <v>24.43945408315651</v>
       </c>
       <c r="F22">
-        <v>76.40091096852707</v>
+        <v>76.4009109685273</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15.81739738252071</v>
+        <v>15.81739738252072</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>58.03951490965646</v>
+        <v>58.03951490965657</v>
       </c>
       <c r="K22">
-        <v>34.41823145425717</v>
+        <v>34.41823145425723</v>
       </c>
       <c r="L22">
-        <v>28.43248031887364</v>
+        <v>28.43248031887367</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.184087001608</v>
+        <v>14.18408700160798</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.73475849562956</v>
+        <v>8.734758495629476</v>
       </c>
       <c r="E23">
-        <v>23.83728345409597</v>
+        <v>23.83728345409595</v>
       </c>
       <c r="F23">
-        <v>74.35182085284936</v>
+        <v>74.35182085284951</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15.73628861872019</v>
+        <v>15.73628861872024</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>56.61691223515481</v>
       </c>
       <c r="K23">
-        <v>33.55456166354767</v>
+        <v>33.55456166354773</v>
       </c>
       <c r="L23">
-        <v>27.76605056143002</v>
+        <v>27.76605056143004</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.0696084288333</v>
+        <v>13.06960842883329</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.76017186978448</v>
+        <v>7.760171869784495</v>
       </c>
       <c r="E24">
-        <v>21.64247128047629</v>
+        <v>21.64247128047631</v>
       </c>
       <c r="F24">
-        <v>66.82383880952092</v>
+        <v>66.82383880952098</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.56066582926199</v>
+        <v>15.560665829262</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>51.30337204338765</v>
       </c>
       <c r="K24">
-        <v>30.33056835326487</v>
+        <v>30.3305683532649</v>
       </c>
       <c r="L24">
-        <v>25.25905276408928</v>
+        <v>25.25905276408931</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.80037719650588</v>
+        <v>11.80037719650583</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.83644738141395</v>
+        <v>6.836447381413969</v>
       </c>
       <c r="E25">
-        <v>19.3518331685599</v>
+        <v>19.35183316855998</v>
       </c>
       <c r="F25">
-        <v>58.91138371051981</v>
+        <v>58.91138371051991</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.55153701967784</v>
+        <v>45.55153701967789</v>
       </c>
       <c r="K25">
-        <v>26.84729693976982</v>
+        <v>26.84729693976984</v>
       </c>
       <c r="L25">
-        <v>22.51977207394477</v>
+        <v>22.51977207394478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.79892558588892</v>
+        <v>10.7989255858889</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.323421059175081</v>
+        <v>6.323421059175057</v>
       </c>
       <c r="E2">
-        <v>17.66416734709496</v>
+        <v>17.6641673470949</v>
       </c>
       <c r="F2">
-        <v>53.08039187306125</v>
+        <v>53.08039187306112</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>15.7177510838838</v>
+        <v>15.71775108388392</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.18125427675209</v>
+        <v>41.181254276752</v>
       </c>
       <c r="K2">
-        <v>24.20727853783114</v>
+        <v>24.20727853783109</v>
       </c>
       <c r="L2">
-        <v>20.4251865707474</v>
+        <v>20.42518657074735</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.07524473147409</v>
+        <v>10.07524473147407</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.998453857668934</v>
+        <v>5.998453857668919</v>
       </c>
       <c r="E3">
-        <v>16.49894508447823</v>
+        <v>16.49894508447832</v>
       </c>
       <c r="F3">
-        <v>49.16310191842108</v>
+        <v>49.16310191842099</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>15.87070445498798</v>
+        <v>15.87070445498795</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>38.09610312487376</v>
       </c>
       <c r="K3">
-        <v>22.34758212755668</v>
+        <v>22.34758212755664</v>
       </c>
       <c r="L3">
-        <v>18.9413249372789</v>
+        <v>18.94132493727888</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.607885912944665</v>
+        <v>9.607885912944585</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.808539436379545</v>
+        <v>5.808539436379495</v>
       </c>
       <c r="E4">
-        <v>15.76820019815504</v>
+        <v>15.76820019815489</v>
       </c>
       <c r="F4">
-        <v>46.81910574708471</v>
+        <v>46.81910574708454</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15.9885790193697</v>
+        <v>15.98857901936977</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>36.1313384266363</v>
+        <v>36.13133842663612</v>
       </c>
       <c r="K4">
-        <v>21.16508515765632</v>
+        <v>21.16508515765623</v>
       </c>
       <c r="L4">
-        <v>17.99456007285253</v>
+        <v>17.99456007285244</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.411543722699104</v>
+        <v>9.411543722699079</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.733388746815614</v>
+        <v>5.733388746815653</v>
       </c>
       <c r="E5">
-        <v>15.46603776926845</v>
+        <v>15.46603776926842</v>
       </c>
       <c r="F5">
         <v>45.85737421828634</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>35.31177046093082</v>
+        <v>35.3117704609308</v>
       </c>
       <c r="K5">
-        <v>20.67226375098367</v>
+        <v>20.67226375098369</v>
       </c>
       <c r="L5">
         <v>17.59929165785803</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.378582843796355</v>
+        <v>9.378582843796417</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.721040947172009</v>
+        <v>5.721040947171995</v>
       </c>
       <c r="E6">
-        <v>15.41558639899431</v>
+        <v>15.41558639899446</v>
       </c>
       <c r="F6">
-        <v>45.69726651875555</v>
+        <v>45.69726651875561</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16.05117203403904</v>
+        <v>16.05117203403893</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>35.17450820070789</v>
+        <v>35.17450820070797</v>
       </c>
       <c r="K6">
-        <v>20.58975088773058</v>
+        <v>20.58975088773056</v>
       </c>
       <c r="L6">
         <v>17.53307385739377</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.60526194428971</v>
+        <v>9.605261944289751</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.807517059268367</v>
+        <v>5.807517059268383</v>
       </c>
       <c r="E7">
-        <v>15.76414346556871</v>
+        <v>15.76414346556883</v>
       </c>
       <c r="F7">
-        <v>46.8061628456625</v>
+        <v>46.80616284566243</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15.9892784013042</v>
+        <v>15.98927840130417</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>36.12036345940741</v>
       </c>
       <c r="K7">
-        <v>21.15848399182851</v>
+        <v>21.15848399182842</v>
       </c>
       <c r="L7">
-        <v>17.98926821120357</v>
+        <v>17.98926821120351</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.55411059638208</v>
+        <v>10.55411059638203</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.209255424142625</v>
+        <v>6.209255424142638</v>
       </c>
       <c r="E8">
-        <v>17.26520908006478</v>
+        <v>17.26520908006495</v>
       </c>
       <c r="F8">
-        <v>51.7050830167539</v>
+        <v>51.70508301675394</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15.76509923998041</v>
+        <v>15.76509923998048</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.13134302982576</v>
+        <v>40.13134302982577</v>
       </c>
       <c r="K8">
-        <v>23.57401586277347</v>
+        <v>23.57401586277345</v>
       </c>
       <c r="L8">
-        <v>19.92063662435717</v>
+        <v>19.92063662435714</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.23780583119486</v>
+        <v>12.23780583119485</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.088945181256552</v>
+        <v>7.088945181256539</v>
       </c>
       <c r="E9">
-        <v>20.12012734657329</v>
+        <v>20.12012734657321</v>
       </c>
       <c r="F9">
-        <v>61.5679919803776</v>
+        <v>61.56799198037777</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15.55025431575583</v>
+        <v>15.55025431575582</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.5037698040872</v>
+        <v>47.50376980408719</v>
       </c>
       <c r="K9">
-        <v>28.02855774214778</v>
+        <v>28.02855774214786</v>
       </c>
       <c r="L9">
-        <v>23.45201502913145</v>
+        <v>23.45201502913151</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.37683454463723</v>
+        <v>13.37683454463722</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.019474420075104</v>
+        <v>8.019474420075021</v>
       </c>
       <c r="E10">
-        <v>22.22788421859037</v>
+        <v>22.22788421859017</v>
       </c>
       <c r="F10">
-        <v>68.83911798507391</v>
+        <v>68.83911798507351</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.58891049731709</v>
+        <v>15.58891049731712</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>52.73991886649455</v>
+        <v>52.73991886649427</v>
       </c>
       <c r="K10">
-        <v>31.20175868073749</v>
+        <v>31.20175868073739</v>
       </c>
       <c r="L10">
-        <v>25.93935834251261</v>
+        <v>25.93935834251251</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.87680224760716</v>
+        <v>13.87680224760718</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.456285155167</v>
+        <v>8.456285155166945</v>
       </c>
       <c r="E11">
-        <v>23.2114940622222</v>
+        <v>23.21149406222209</v>
       </c>
       <c r="F11">
-        <v>72.21391547774604</v>
+        <v>72.21391547774579</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.66688479617773</v>
+        <v>15.66688479617771</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>55.12218768275285</v>
+        <v>55.12218768275275</v>
       </c>
       <c r="K11">
-        <v>32.64725191061158</v>
+        <v>32.64725191061149</v>
       </c>
       <c r="L11">
-        <v>27.06351774937177</v>
+        <v>27.06351774937173</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.06386937210351</v>
+        <v>14.06386937210356</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.624849580880113</v>
+        <v>8.624849580880165</v>
       </c>
       <c r="E12">
         <v>23.59039005565154</v>
       </c>
       <c r="F12">
-        <v>73.50931171519024</v>
+        <v>73.50931171519018</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15.70708147061016</v>
+        <v>15.70708147061025</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>56.02916602197936</v>
+        <v>56.02916602197935</v>
       </c>
       <c r="K12">
         <v>33.19777124434157</v>
       </c>
       <c r="L12">
-        <v>27.49007836382195</v>
+        <v>27.49007836382196</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.02367467835383</v>
+        <v>14.02367467835387</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.588381424299634</v>
+        <v>8.588381424299591</v>
       </c>
       <c r="E13">
-        <v>23.50844392169591</v>
+        <v>23.50844392169587</v>
       </c>
       <c r="F13">
-        <v>73.22939179965439</v>
+        <v>73.22939179965434</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15.69791200217807</v>
+        <v>15.69791200217805</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>55.83351879049219</v>
+        <v>55.83351879049218</v>
       </c>
       <c r="K13">
         <v>33.07901015373319</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.89223520595781</v>
+        <v>13.89223520595778</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.470081196877549</v>
+        <v>8.470081196877594</v>
       </c>
       <c r="E14">
-        <v>23.24251673692492</v>
+        <v>23.24251673692487</v>
       </c>
       <c r="F14">
-        <v>72.32008346537616</v>
+        <v>72.32008346537602</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15.66996454888729</v>
+        <v>15.66996454888731</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>55.19667366514081</v>
+        <v>55.19667366514069</v>
       </c>
       <c r="K14">
-        <v>32.69246031913352</v>
+        <v>32.69246031913344</v>
       </c>
       <c r="L14">
-        <v>27.09858023408306</v>
+        <v>27.098580234083</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.398073576702892</v>
+        <v>8.398073576702885</v>
       </c>
       <c r="E15">
-        <v>23.08056983364462</v>
+        <v>23.08056983364457</v>
       </c>
       <c r="F15">
         <v>71.76565914244243</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.65430396105684</v>
+        <v>15.65430396105691</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>54.80739502028562</v>
+        <v>54.80739502028564</v>
       </c>
       <c r="K15">
-        <v>32.45619926224595</v>
+        <v>32.45619926224598</v>
       </c>
       <c r="L15">
-        <v>26.91527669106068</v>
+        <v>26.91527669106071</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.34382243568289</v>
+        <v>13.34382243568284</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.9912931122278</v>
+        <v>7.991293112227892</v>
       </c>
       <c r="E16">
-        <v>22.16432165872944</v>
+        <v>22.16432165872953</v>
       </c>
       <c r="F16">
-        <v>68.62051777718787</v>
+        <v>68.62051777718808</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.58518748910145</v>
+        <v>15.58518748910151</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>52.5846118082152</v>
+        <v>52.58461180821534</v>
       </c>
       <c r="K16">
-        <v>31.1075541263017</v>
+        <v>31.10755412630181</v>
       </c>
       <c r="L16">
-        <v>25.8658933917028</v>
+        <v>25.86589339170283</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.05251495426965</v>
+        <v>13.05251495426962</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.745935683874736</v>
+        <v>7.745935683874744</v>
       </c>
       <c r="E17">
-        <v>21.61029276652064</v>
+        <v>21.6102927665207</v>
       </c>
       <c r="F17">
         <v>66.71294584182665</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.55950615234679</v>
+        <v>15.55950615234675</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>51.22400970327958</v>
+        <v>51.22400970327961</v>
       </c>
       <c r="K17">
         <v>30.28245134039732</v>
       </c>
       <c r="L17">
-        <v>25.22141967156142</v>
+        <v>25.22141967156145</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88322483614904</v>
+        <v>12.88322483614903</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.605991183177312</v>
+        <v>7.605991183177268</v>
       </c>
       <c r="E18">
-        <v>21.2937418364906</v>
+        <v>21.29374183649065</v>
       </c>
       <c r="F18">
-        <v>65.62148043493207</v>
+        <v>65.6214804349321</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15.55027474261782</v>
+        <v>15.55027474261786</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>50.44109117462713</v>
       </c>
       <c r="K18">
-        <v>29.80784493266189</v>
+        <v>29.80784493266187</v>
       </c>
       <c r="L18">
         <v>24.84989861344046</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.8255985595631</v>
+        <v>12.82559855956316</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.558780808742484</v>
+        <v>7.558780808742458</v>
       </c>
       <c r="E19">
         <v>21.18685551623067</v>
       </c>
       <c r="F19">
-        <v>65.25271903220846</v>
+        <v>65.25271903220857</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15.54804848426639</v>
+        <v>15.54804848426644</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>50.17583029862338</v>
+        <v>50.17583029862346</v>
       </c>
       <c r="K19">
-        <v>29.64707468424618</v>
+        <v>29.64707468424623</v>
       </c>
       <c r="L19">
-        <v>24.72391597285723</v>
+        <v>24.72391597285727</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.08370276349178</v>
+        <v>13.08370276349181</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.771925050254924</v>
+        <v>7.771925050255018</v>
       </c>
       <c r="E20">
-        <v>21.66903422369055</v>
+        <v>21.66903422369062</v>
       </c>
       <c r="F20">
-        <v>66.91537091066525</v>
+        <v>66.9153709106652</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.56165393431595</v>
+        <v>15.56165393431601</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>51.36885338606988</v>
+        <v>51.36885338606987</v>
       </c>
       <c r="K20">
-        <v>30.37027038337086</v>
+        <v>30.37027038337082</v>
       </c>
       <c r="L20">
-        <v>25.29009977589502</v>
+        <v>25.290099775895</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.93090007657411</v>
+        <v>13.9309000765742</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.504731210288465</v>
+        <v>8.50473121028849</v>
       </c>
       <c r="E21">
-        <v>23.32042300542945</v>
+        <v>23.32042300542936</v>
       </c>
       <c r="F21">
-        <v>72.58661876776384</v>
+        <v>72.58661876776395</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15.67786514935381</v>
+        <v>15.67786514935382</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>55.38355091973997</v>
+        <v>55.38355091974</v>
       </c>
       <c r="K21">
-        <v>32.80588601703671</v>
+        <v>32.80588601703672</v>
       </c>
       <c r="L21">
-        <v>27.18652405573641</v>
+        <v>27.18652405573645</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,31 +1178,31 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.003006210048895</v>
+        <v>9.003006210048925</v>
       </c>
       <c r="E22">
-        <v>24.43945408315651</v>
+        <v>24.4394540831564</v>
       </c>
       <c r="F22">
-        <v>76.4009109685273</v>
+        <v>76.40091096852707</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15.81739738252072</v>
+        <v>15.81739738252071</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>58.03951490965657</v>
+        <v>58.03951490965646</v>
       </c>
       <c r="K22">
-        <v>34.41823145425723</v>
+        <v>34.41823145425717</v>
       </c>
       <c r="L22">
-        <v>28.43248031887367</v>
+        <v>28.43248031887364</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.18408700160798</v>
+        <v>14.184087001608</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.734758495629476</v>
+        <v>8.73475849562956</v>
       </c>
       <c r="E23">
-        <v>23.83728345409595</v>
+        <v>23.83728345409597</v>
       </c>
       <c r="F23">
-        <v>74.35182085284951</v>
+        <v>74.35182085284936</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15.73628861872024</v>
+        <v>15.73628861872019</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>56.61691223515481</v>
       </c>
       <c r="K23">
-        <v>33.55456166354773</v>
+        <v>33.55456166354767</v>
       </c>
       <c r="L23">
-        <v>27.76605056143004</v>
+        <v>27.76605056143002</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.06960842883329</v>
+        <v>13.0696084288333</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.760171869784495</v>
+        <v>7.76017186978448</v>
       </c>
       <c r="E24">
-        <v>21.64247128047631</v>
+        <v>21.64247128047629</v>
       </c>
       <c r="F24">
-        <v>66.82383880952098</v>
+        <v>66.82383880952092</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.560665829262</v>
+        <v>15.56066582926199</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>51.30337204338765</v>
       </c>
       <c r="K24">
-        <v>30.3305683532649</v>
+        <v>30.33056835326487</v>
       </c>
       <c r="L24">
-        <v>25.25905276408931</v>
+        <v>25.25905276408928</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.80037719650583</v>
+        <v>11.80037719650588</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.836447381413969</v>
+        <v>6.83644738141395</v>
       </c>
       <c r="E25">
-        <v>19.35183316855998</v>
+        <v>19.3518331685599</v>
       </c>
       <c r="F25">
-        <v>58.91138371051991</v>
+        <v>58.91138371051981</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.55153701967789</v>
+        <v>45.55153701967784</v>
       </c>
       <c r="K25">
-        <v>26.84729693976984</v>
+        <v>26.84729693976982</v>
       </c>
       <c r="L25">
-        <v>22.51977207394478</v>
+        <v>22.51977207394477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.7989255858889</v>
+        <v>10.77705504638922</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.323421059175057</v>
+        <v>6.386782730871814</v>
       </c>
       <c r="E2">
-        <v>17.6641673470949</v>
+        <v>17.33602024411529</v>
       </c>
       <c r="F2">
-        <v>53.08039187306112</v>
+        <v>52.90498835202341</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.977252464246803</v>
       </c>
       <c r="H2">
-        <v>15.71775108388392</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.86587635379023</v>
       </c>
       <c r="J2">
-        <v>41.181254276752</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>24.20727853783109</v>
+        <v>40.87169313110531</v>
       </c>
       <c r="L2">
-        <v>20.42518657074735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>24.0647138216754</v>
+      </c>
+      <c r="M2">
+        <v>20.30997388137783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.07524473147407</v>
+        <v>10.05412575699279</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.998453857668919</v>
+        <v>6.082363602659766</v>
       </c>
       <c r="E3">
-        <v>16.49894508447832</v>
+        <v>16.17151290508922</v>
       </c>
       <c r="F3">
-        <v>49.16310191842099</v>
+        <v>49.14795803230649</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.999171012125095</v>
       </c>
       <c r="H3">
-        <v>15.87070445498795</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.02756601816652</v>
       </c>
       <c r="J3">
-        <v>38.09610312487376</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>22.34758212755664</v>
+        <v>37.80139299425581</v>
       </c>
       <c r="L3">
-        <v>18.94132493727888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>22.21535664633622</v>
+      </c>
+      <c r="M3">
+        <v>18.83065754367985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.607885912944585</v>
+        <v>9.587200679097062</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.808539436379495</v>
+        <v>5.905775018812802</v>
       </c>
       <c r="E4">
-        <v>15.76820019815489</v>
+        <v>15.44017338098811</v>
       </c>
       <c r="F4">
-        <v>46.81910574708454</v>
+        <v>46.8511981481639</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.01263690867772</v>
       </c>
       <c r="H4">
-        <v>15.98857901936977</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.15033765714989</v>
       </c>
       <c r="J4">
-        <v>36.13133842663612</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>21.16508515765623</v>
+        <v>35.84543464329585</v>
       </c>
       <c r="L4">
-        <v>17.99456007285244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>21.03925609192719</v>
+      </c>
+      <c r="M4">
+        <v>17.88646722825093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.411543722699079</v>
+        <v>9.391029068337845</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.733388746815653</v>
+        <v>5.836222385549349</v>
       </c>
       <c r="E5">
-        <v>15.46603776926842</v>
+        <v>15.1375125323358</v>
       </c>
       <c r="F5">
-        <v>45.85737421828634</v>
+        <v>45.90978103045157</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.018142316696313</v>
       </c>
       <c r="H5">
-        <v>16.04199460157347</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.20565154486646</v>
       </c>
       <c r="J5">
-        <v>35.3117704609308</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>20.67226375098369</v>
+        <v>35.02940024119469</v>
       </c>
       <c r="L5">
-        <v>17.59929165785803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>20.54907199242396</v>
+      </c>
+      <c r="M5">
+        <v>17.49220013512108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.378582843796417</v>
+        <v>9.358096155880974</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.721040947171995</v>
+        <v>5.824813857730503</v>
       </c>
       <c r="E6">
-        <v>15.41558639899446</v>
+        <v>15.08696294001289</v>
       </c>
       <c r="F6">
-        <v>45.69726651875561</v>
+        <v>45.75311338051945</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.019057989534502</v>
       </c>
       <c r="H6">
-        <v>16.05117203403893</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.21513885781484</v>
       </c>
       <c r="J6">
-        <v>35.17450820070797</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>20.58975088773056</v>
+        <v>34.89272195761828</v>
       </c>
       <c r="L6">
-        <v>17.53307385739377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>20.46699940608738</v>
+      </c>
+      <c r="M6">
+        <v>17.42614585066245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.605261944289751</v>
+        <v>9.584579035208312</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.807517059268383</v>
+        <v>5.904827477936069</v>
       </c>
       <c r="E7">
-        <v>15.76414346556883</v>
+        <v>15.43611096243226</v>
       </c>
       <c r="F7">
-        <v>46.80616284566243</v>
+        <v>46.83852478574315</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.01271106457256</v>
       </c>
       <c r="H7">
-        <v>15.98927840130417</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.15106300931477</v>
       </c>
       <c r="J7">
-        <v>36.12036345940741</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>21.15848399182842</v>
+        <v>35.83450752793843</v>
       </c>
       <c r="L7">
-        <v>17.98926821120351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>21.03269034656709</v>
+      </c>
+      <c r="M7">
+        <v>17.88118905790804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.55411059638203</v>
+        <v>10.53250558209927</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.209255424142638</v>
+        <v>6.27955011654883</v>
       </c>
       <c r="E8">
-        <v>17.26520908006495</v>
+        <v>16.93752715448684</v>
       </c>
       <c r="F8">
-        <v>51.70508301675394</v>
+        <v>51.58234495916857</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.984818831778114</v>
       </c>
       <c r="H8">
-        <v>15.76509923998048</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.91634662842684</v>
       </c>
       <c r="J8">
-        <v>40.13134302982577</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>23.57401586277345</v>
+        <v>39.82698371782366</v>
       </c>
       <c r="L8">
-        <v>19.92063662435714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>23.43501826620434</v>
+      </c>
+      <c r="M8">
+        <v>19.8070409779976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.23780583119485</v>
+        <v>12.21410595224014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.088945181256539</v>
+        <v>7.107558330764776</v>
       </c>
       <c r="E9">
-        <v>20.12012734657321</v>
+        <v>19.78437636157667</v>
       </c>
       <c r="F9">
-        <v>61.56799198037777</v>
+        <v>61.27030630611363</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.929288986128051</v>
       </c>
       <c r="H9">
-        <v>15.55025431575582</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.67607338581371</v>
       </c>
       <c r="J9">
-        <v>47.50376980408719</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>28.02855774214786</v>
+        <v>47.1591047052362</v>
       </c>
       <c r="L9">
-        <v>23.45201502913151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>27.8629952309606</v>
+      </c>
+      <c r="M9">
+        <v>23.32538727702807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.37683454463722</v>
+        <v>13.35125792727262</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.019474420075021</v>
+        <v>7.925668142101353</v>
       </c>
       <c r="E10">
-        <v>22.22788421859017</v>
+        <v>21.87921205360275</v>
       </c>
       <c r="F10">
-        <v>68.83911798507351</v>
+        <v>68.44120938035979</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.886341109077107</v>
       </c>
       <c r="H10">
-        <v>15.58891049731712</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.69133843267012</v>
       </c>
       <c r="J10">
-        <v>52.73991886649427</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>31.20175868073739</v>
+        <v>52.35983079590857</v>
       </c>
       <c r="L10">
-        <v>25.93935834251251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>31.01419025821785</v>
+      </c>
+      <c r="M10">
+        <v>25.80063954842811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.87680224760718</v>
+        <v>13.85022857294346</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.456285155166945</v>
+        <v>8.354225119285619</v>
       </c>
       <c r="E11">
-        <v>23.21149406222209</v>
+        <v>22.8546377809681</v>
       </c>
       <c r="F11">
-        <v>72.21391547774579</v>
+        <v>71.76880840621817</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.865795697169594</v>
       </c>
       <c r="H11">
-        <v>15.66688479617771</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.75709186921347</v>
       </c>
       <c r="J11">
-        <v>55.12218768275275</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>32.64725191061149</v>
+        <v>54.72337006666665</v>
       </c>
       <c r="L11">
-        <v>27.06351774937173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>32.44834537733301</v>
+      </c>
+      <c r="M11">
+        <v>26.91826296334387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.06386937210356</v>
+        <v>14.03688717886024</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.624849580880165</v>
+        <v>8.51959427232344</v>
       </c>
       <c r="E12">
-        <v>23.59039005565154</v>
+        <v>23.22998197038983</v>
       </c>
       <c r="F12">
-        <v>73.50931171519018</v>
+        <v>73.04574491835311</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.857804429264514</v>
       </c>
       <c r="H12">
-        <v>15.70708147061025</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.79236539308088</v>
       </c>
       <c r="J12">
-        <v>56.02916602197935</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>33.19777124434157</v>
+        <v>55.62268417112755</v>
       </c>
       <c r="L12">
-        <v>27.49007836382196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>32.99426911636083</v>
+      </c>
+      <c r="M12">
+        <v>27.34212797482939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.02367467835387</v>
+        <v>13.99678207267318</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.588381424299591</v>
+        <v>8.483818611097325</v>
       </c>
       <c r="E13">
-        <v>23.50844392169587</v>
+        <v>23.1488236261095</v>
       </c>
       <c r="F13">
-        <v>73.22939179965434</v>
+        <v>72.76983429903206</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.859536210706319</v>
       </c>
       <c r="H13">
-        <v>15.69791200217805</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.78427075328631</v>
       </c>
       <c r="J13">
-        <v>55.83351879049218</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>33.07901015373319</v>
+        <v>55.42871730159883</v>
       </c>
       <c r="L13">
-        <v>27.3981339784424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>32.87651363379788</v>
+      </c>
+      <c r="M13">
+        <v>27.25077552583291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.89223520595778</v>
+        <v>13.86562862273861</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.470081196877594</v>
+        <v>8.367760115075463</v>
       </c>
       <c r="E14">
-        <v>23.24251673692487</v>
+        <v>22.88537826688468</v>
       </c>
       <c r="F14">
-        <v>72.32008346537602</v>
+        <v>71.87347211508805</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.865142951252023</v>
       </c>
       <c r="H14">
-        <v>15.66996454888731</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.75977300459657</v>
       </c>
       <c r="J14">
-        <v>55.19667366514069</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>32.69246031913344</v>
+        <v>54.79723847279243</v>
       </c>
       <c r="L14">
-        <v>27.098580234083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>32.49318260846062</v>
+      </c>
+      <c r="M14">
+        <v>26.95310865266835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.81144296282107</v>
+        <v>13.78500714105624</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.398073576702885</v>
+        <v>8.297114343511794</v>
       </c>
       <c r="E15">
-        <v>23.08056983364457</v>
+        <v>22.72488782301338</v>
       </c>
       <c r="F15">
-        <v>71.76565914244243</v>
+        <v>71.32688784249265</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.868547358229659</v>
       </c>
       <c r="H15">
-        <v>15.65430396105691</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.74618449116144</v>
       </c>
       <c r="J15">
-        <v>54.80739502028564</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>32.45619926224598</v>
+        <v>54.41116477675326</v>
       </c>
       <c r="L15">
-        <v>26.91527669106071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>32.25884952788664</v>
+      </c>
+      <c r="M15">
+        <v>26.770929357392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.34382243568284</v>
+        <v>13.31830732975863</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.991293112227892</v>
+        <v>7.898020221154541</v>
       </c>
       <c r="E16">
-        <v>22.16432165872953</v>
+        <v>21.81612905578362</v>
       </c>
       <c r="F16">
-        <v>68.62051777718808</v>
+        <v>68.22563450427171</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.887658379343858</v>
       </c>
       <c r="H16">
-        <v>15.58518748910151</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.6883770530143</v>
       </c>
       <c r="J16">
-        <v>52.58461180821534</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>31.10755412630181</v>
+        <v>52.20568060992841</v>
       </c>
       <c r="L16">
-        <v>25.86589339170283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>30.92069167987859</v>
+      </c>
+      <c r="M16">
+        <v>25.72757559439356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.05251495426962</v>
+        <v>13.02752216313912</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.745935683874744</v>
+        <v>7.657323709645427</v>
       </c>
       <c r="E17">
-        <v>21.6102927665207</v>
+        <v>21.26603688496959</v>
       </c>
       <c r="F17">
-        <v>66.71294584182665</v>
+        <v>66.34436763770422</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.899083964028938</v>
       </c>
       <c r="H17">
-        <v>15.55950615234675</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.66918786582318</v>
       </c>
       <c r="J17">
-        <v>51.22400970327961</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>30.28245134039732</v>
+        <v>50.85491046217353</v>
       </c>
       <c r="L17">
-        <v>25.22141967156145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>30.10161923574697</v>
+      </c>
+      <c r="M17">
+        <v>25.08649519068655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88322483614903</v>
+        <v>12.85851981820762</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.605991183177268</v>
+        <v>7.520057233118957</v>
       </c>
       <c r="E18">
-        <v>21.29374183649065</v>
+        <v>20.95154314817702</v>
       </c>
       <c r="F18">
-        <v>65.6214804349321</v>
+        <v>65.26790870379733</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.905565787806312</v>
       </c>
       <c r="H18">
-        <v>15.55027474261786</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.6635469959379</v>
       </c>
       <c r="J18">
-        <v>50.44109117462713</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>29.80784493266187</v>
+        <v>50.07741663603951</v>
       </c>
       <c r="L18">
-        <v>24.84989861344046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>29.63036528215214</v>
+      </c>
+      <c r="M18">
+        <v>24.71683420010639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.82559855956316</v>
+        <v>12.80098903841512</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.558780808742458</v>
+        <v>7.473754518777263</v>
       </c>
       <c r="E19">
-        <v>21.18685551623067</v>
+        <v>20.84532048391962</v>
       </c>
       <c r="F19">
-        <v>65.25271903220857</v>
+        <v>64.90421547129577</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.907746642632051</v>
       </c>
       <c r="H19">
-        <v>15.54804848426644</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.66251345283597</v>
       </c>
       <c r="J19">
-        <v>50.17583029862346</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>29.64707468424623</v>
+        <v>49.81395736951262</v>
       </c>
       <c r="L19">
-        <v>24.72391597285727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>29.47071274762176</v>
+      </c>
+      <c r="M19">
+        <v>24.59146722840644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.08370276349181</v>
+        <v>13.05865573841241</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.771925050255018</v>
+        <v>7.682817551531121</v>
       </c>
       <c r="E20">
-        <v>21.66903422369062</v>
+        <v>21.32438137910692</v>
       </c>
       <c r="F20">
-        <v>66.9153709106652</v>
+        <v>66.54400735425486</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.89787739842904</v>
       </c>
       <c r="H20">
-        <v>15.56165393431601</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.67065981851523</v>
       </c>
       <c r="J20">
-        <v>51.36885338606987</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>30.37027038337082</v>
+        <v>50.99873246982833</v>
       </c>
       <c r="L20">
-        <v>25.290099775895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>30.18880898350312</v>
+      </c>
+      <c r="M20">
+        <v>25.15482396400731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.9309000765742</v>
+        <v>13.90421043328034</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.50473121028849</v>
+        <v>8.401754173615418</v>
       </c>
       <c r="E21">
-        <v>23.32042300542936</v>
+        <v>22.96256916823196</v>
       </c>
       <c r="F21">
-        <v>72.58661876776395</v>
+        <v>72.13622443875963</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.863502498630164</v>
       </c>
       <c r="H21">
-        <v>15.67786514935382</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.76666904647009</v>
       </c>
       <c r="J21">
-        <v>55.38355091974</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>32.80588601703672</v>
+        <v>54.982557129881</v>
       </c>
       <c r="L21">
-        <v>27.18652405573645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>32.60567224677713</v>
+      </c>
+      <c r="M21">
+        <v>27.04050501044985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.47168359794132</v>
+        <v>14.44373009570678</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.003006210048925</v>
+        <v>8.890506862241191</v>
       </c>
       <c r="E22">
-        <v>24.4394540831564</v>
+        <v>24.07021593908664</v>
       </c>
       <c r="F22">
-        <v>76.40091096852707</v>
+        <v>75.89512925301545</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.839754170956833</v>
       </c>
       <c r="H22">
-        <v>15.81739738252071</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.8912195371246</v>
       </c>
       <c r="J22">
-        <v>58.03951490965646</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>34.41823145425717</v>
+        <v>57.61482658310592</v>
       </c>
       <c r="L22">
-        <v>28.43248031887364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>34.20389740516136</v>
+      </c>
+      <c r="M22">
+        <v>28.27808634047748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.184087001608</v>
+        <v>14.15683062363183</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.73475849562956</v>
+        <v>8.627410847474648</v>
       </c>
       <c r="E23">
-        <v>23.83728345409597</v>
+        <v>23.47443489564499</v>
       </c>
       <c r="F23">
-        <v>74.35182085284936</v>
+        <v>73.87611176067705</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.852575527960538</v>
       </c>
       <c r="H23">
-        <v>15.73628861872019</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.81830073982561</v>
       </c>
       <c r="J23">
-        <v>56.61691223515481</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>33.55456166354767</v>
+        <v>56.20528885679374</v>
       </c>
       <c r="L23">
-        <v>27.76605056143002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>33.3479890969438</v>
+      </c>
+      <c r="M23">
+        <v>27.61628590531184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.0696084288333</v>
+        <v>13.04458596120638</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.76017186978448</v>
+        <v>7.671288398673807</v>
       </c>
       <c r="E24">
-        <v>21.64247128047629</v>
+        <v>21.2979985367536</v>
       </c>
       <c r="F24">
-        <v>66.82383880952092</v>
+        <v>66.45373485012352</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.898423152777251</v>
       </c>
       <c r="H24">
-        <v>15.56066582926199</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.66997769311621</v>
       </c>
       <c r="J24">
-        <v>51.30337204338765</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>30.33056835326487</v>
+        <v>50.93371372300049</v>
       </c>
       <c r="L24">
-        <v>25.25905276408928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>30.14939180685264</v>
+      </c>
+      <c r="M24">
+        <v>25.12393606697623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.80037719650588</v>
+        <v>11.77728709413392</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.83644738141395</v>
+        <v>6.871702668181268</v>
       </c>
       <c r="E25">
-        <v>19.3518331685599</v>
+        <v>19.01931819259202</v>
       </c>
       <c r="F25">
-        <v>58.91138371051981</v>
+        <v>58.65087476679835</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.944544555308577</v>
       </c>
       <c r="H25">
-        <v>15.57888700607896</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.71225960726244</v>
       </c>
       <c r="J25">
-        <v>45.55153701967784</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>26.84729693976982</v>
+        <v>45.21847405543085</v>
       </c>
       <c r="L25">
-        <v>22.51977207394477</v>
+        <v>26.68916600328785</v>
+      </c>
+      <c r="M25">
+        <v>22.39699713661339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.77705504638922</v>
+        <v>7.279104338146595</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.386782730871814</v>
+        <v>3.452559248338196</v>
       </c>
       <c r="E2">
-        <v>17.33602024411529</v>
+        <v>5.614782948422282</v>
       </c>
       <c r="F2">
-        <v>52.90498835202341</v>
+        <v>41.05729587285715</v>
       </c>
       <c r="G2">
-        <v>1.977252464246803</v>
+        <v>1.983666974444525</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.86587635379023</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>40.87169313110531</v>
+        <v>37.89343053516408</v>
       </c>
       <c r="L2">
-        <v>24.0647138216754</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>20.30997388137783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>27.08823913389227</v>
+      </c>
+      <c r="N2">
+        <v>11.5136352680079</v>
+      </c>
+      <c r="O2">
+        <v>32.00311586749151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.05412575699279</v>
+        <v>6.915405652759163</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.082363602659766</v>
+        <v>3.364645484311117</v>
       </c>
       <c r="E3">
-        <v>16.17151290508922</v>
+        <v>5.686780232742114</v>
       </c>
       <c r="F3">
-        <v>49.14795803230649</v>
+        <v>38.10537352696889</v>
       </c>
       <c r="G3">
-        <v>1.999171012125095</v>
+        <v>1.999417496598076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.02756601816652</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>37.80139299425581</v>
+        <v>35.20253243093338</v>
       </c>
       <c r="L3">
-        <v>22.21535664633622</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>18.83065754367985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>25.1500859297025</v>
+      </c>
+      <c r="N3">
+        <v>11.79255143046492</v>
+      </c>
+      <c r="O3">
+        <v>29.73339614620184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.587200679097062</v>
+        <v>6.685842699271771</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.905775018812802</v>
+        <v>3.319708259643595</v>
       </c>
       <c r="E4">
-        <v>15.44017338098811</v>
+        <v>5.740335260899519</v>
       </c>
       <c r="F4">
-        <v>46.8511981481639</v>
+        <v>36.34608154117861</v>
       </c>
       <c r="G4">
-        <v>2.01263690867772</v>
+        <v>2.009195183200092</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.15033765714989</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.84543464329585</v>
+        <v>33.47418160154288</v>
       </c>
       <c r="L4">
-        <v>21.03925609192719</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>17.88646722825093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>23.90745760329679</v>
+      </c>
+      <c r="N4">
+        <v>11.96590657017975</v>
+      </c>
+      <c r="O4">
+        <v>28.4200791817251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.391029068337845</v>
+        <v>6.590842330061303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.836222385549349</v>
+        <v>3.303489272448964</v>
       </c>
       <c r="E5">
-        <v>15.1375125323358</v>
+        <v>5.764289828328707</v>
       </c>
       <c r="F5">
-        <v>45.90978103045157</v>
+        <v>35.62104872734283</v>
       </c>
       <c r="G5">
-        <v>2.018142316696313</v>
+        <v>2.013213826648355</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.20565154486646</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.02940024119469</v>
+        <v>32.7501636684725</v>
       </c>
       <c r="L5">
-        <v>20.54907199242396</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>17.49220013512108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23.38742370588377</v>
+      </c>
+      <c r="N5">
+        <v>12.0371656245382</v>
+      </c>
+      <c r="O5">
+        <v>27.88071391375183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.358096155880974</v>
+        <v>6.574983859379273</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.824813857730503</v>
+        <v>3.300917316967459</v>
       </c>
       <c r="E6">
-        <v>15.08696294001289</v>
+        <v>5.768390179223315</v>
       </c>
       <c r="F6">
-        <v>45.75311338051945</v>
+        <v>35.50016924068883</v>
       </c>
       <c r="G6">
-        <v>2.019057989534502</v>
+        <v>2.013883379426923</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.21513885781484</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.89272195761828</v>
+        <v>32.62873608541665</v>
       </c>
       <c r="L6">
-        <v>20.46699940608738</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>17.42614585066245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>23.30023634109984</v>
+      </c>
+      <c r="N6">
+        <v>12.04903769315793</v>
+      </c>
+      <c r="O6">
+        <v>27.79090319613022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.584579035208312</v>
+        <v>6.684567193694344</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.904827477936069</v>
+        <v>3.319481285841912</v>
       </c>
       <c r="E7">
-        <v>15.43611096243226</v>
+        <v>5.740649967158876</v>
       </c>
       <c r="F7">
-        <v>46.83852478574315</v>
+        <v>36.33633629612401</v>
       </c>
       <c r="G7">
-        <v>2.01271106457256</v>
+        <v>2.009249232709958</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.15106300931477</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.83450752793843</v>
+        <v>33.46449770120026</v>
       </c>
       <c r="L7">
-        <v>21.03269034656709</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>17.88118905790804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>23.90050005249012</v>
+      </c>
+      <c r="N7">
+        <v>11.966864993793</v>
+      </c>
+      <c r="O7">
+        <v>28.41282192959853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.53250558209927</v>
+        <v>7.155063685380014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.27955011654883</v>
+        <v>3.420260466259838</v>
       </c>
       <c r="E8">
-        <v>16.93752715448684</v>
+        <v>5.637526659057094</v>
       </c>
       <c r="F8">
-        <v>51.58234495916857</v>
+        <v>40.02424149249699</v>
       </c>
       <c r="G8">
-        <v>1.984818831778114</v>
+        <v>1.989080272681839</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.91634662842684</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>39.82698371782366</v>
+        <v>36.98105170213496</v>
       </c>
       <c r="L8">
-        <v>23.43501826620434</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>19.8070409779976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>26.43060568993314</v>
+      </c>
+      <c r="N8">
+        <v>11.60942553690738</v>
+      </c>
+      <c r="O8">
+        <v>31.1828999211189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.21410595224014</v>
+        <v>8.023927063389978</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.107558330764776</v>
+        <v>3.861648816617612</v>
       </c>
       <c r="E9">
-        <v>19.78437636157667</v>
+        <v>5.520845769082653</v>
       </c>
       <c r="F9">
-        <v>61.27030630611363</v>
+        <v>47.32520399705112</v>
       </c>
       <c r="G9">
-        <v>1.929288986128051</v>
+        <v>1.949991029895559</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.67607338581371</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>47.1591047052362</v>
+        <v>43.30228087345414</v>
       </c>
       <c r="L9">
-        <v>27.8629952309606</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>23.32538727702807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>30.99730792381755</v>
+      </c>
+      <c r="N9">
+        <v>10.92061126933314</v>
+      </c>
+      <c r="O9">
+        <v>36.97544424218454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.35125792727262</v>
+        <v>8.69192575395825</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.925668142101353</v>
+        <v>4.370106197919894</v>
       </c>
       <c r="E10">
-        <v>21.87921205360275</v>
+        <v>5.505486461294418</v>
       </c>
       <c r="F10">
-        <v>68.44120938035979</v>
+        <v>52.52569084887863</v>
       </c>
       <c r="G10">
-        <v>1.886341109077107</v>
+        <v>1.92090490424433</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.69133843267012</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>52.35983079590857</v>
+        <v>47.64510491127879</v>
       </c>
       <c r="L10">
-        <v>31.01419025821785</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>25.80063954842811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>34.14931901915767</v>
+      </c>
+      <c r="N10">
+        <v>10.41446072234798</v>
+      </c>
+      <c r="O10">
+        <v>41.09865793647523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.85022857294346</v>
+        <v>9.008973903438804</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.354225119285619</v>
+        <v>4.604201464604231</v>
       </c>
       <c r="E11">
-        <v>22.8546377809681</v>
+        <v>5.518589586860536</v>
       </c>
       <c r="F11">
-        <v>71.76880840621817</v>
+        <v>54.87587167587632</v>
       </c>
       <c r="G11">
-        <v>1.865795697169594</v>
+        <v>1.90740573290005</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.75709186921347</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>54.72337006666665</v>
+        <v>49.5693096955351</v>
       </c>
       <c r="L11">
-        <v>32.44834537733301</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>26.91826296334387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>35.54984722139617</v>
+      </c>
+      <c r="N11">
+        <v>10.18209001781966</v>
+      </c>
+      <c r="O11">
+        <v>42.96208831982384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.03688717886024</v>
+        <v>9.126743726314379</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.51959427232344</v>
+        <v>4.693597236251617</v>
       </c>
       <c r="E12">
-        <v>23.22998197038983</v>
+        <v>5.526910720331036</v>
       </c>
       <c r="F12">
-        <v>73.04574491835311</v>
+        <v>55.76582882988082</v>
       </c>
       <c r="G12">
-        <v>1.857804429264514</v>
+        <v>1.902235283596376</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.79236539308088</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>55.62268417112755</v>
+        <v>50.2920595715215</v>
       </c>
       <c r="L12">
-        <v>32.99426911636083</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>27.34212797482939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36.07653612524409</v>
+      </c>
+      <c r="N12">
+        <v>10.09357304433651</v>
+      </c>
+      <c r="O12">
+        <v>43.66779850018709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.99678207267318</v>
+        <v>9.1014806854339</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.483818611097325</v>
+        <v>4.674304503599449</v>
       </c>
       <c r="E13">
-        <v>23.1488236261095</v>
+        <v>5.524961023116828</v>
       </c>
       <c r="F13">
-        <v>72.76983429903206</v>
+        <v>55.57411896647545</v>
       </c>
       <c r="G13">
-        <v>1.859536210706319</v>
+        <v>1.903351810919711</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.78427075328631</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>55.42871730159883</v>
+        <v>50.13663773235765</v>
       </c>
       <c r="L13">
-        <v>32.87651363379788</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>27.25077552583291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>35.96324618126913</v>
+      </c>
+      <c r="N13">
+        <v>10.11266402087328</v>
+      </c>
+      <c r="O13">
+        <v>43.51577383521173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.86562862273861</v>
+        <v>9.018708415110357</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.367760115075463</v>
+        <v>4.611538808363076</v>
       </c>
       <c r="E14">
-        <v>22.88537826688468</v>
+        <v>5.519203921486842</v>
       </c>
       <c r="F14">
-        <v>71.87347211508805</v>
+        <v>54.94907421179078</v>
       </c>
       <c r="G14">
-        <v>1.865142951252023</v>
+        <v>1.906981663722121</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.75977300459657</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>54.79723847279243</v>
+        <v>49.62887938314736</v>
       </c>
       <c r="L14">
-        <v>32.49318260846062</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>26.95310865266835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>35.59324417758607</v>
+      </c>
+      <c r="N14">
+        <v>10.1748195797125</v>
+      </c>
+      <c r="O14">
+        <v>43.02013395859549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.78500714105624</v>
+        <v>8.967711742078089</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.297114343511794</v>
+        <v>4.573202273221781</v>
       </c>
       <c r="E15">
-        <v>22.72488782301338</v>
+        <v>5.516130065219958</v>
       </c>
       <c r="F15">
-        <v>71.32688784249265</v>
+        <v>54.5662917282582</v>
       </c>
       <c r="G15">
-        <v>1.868547358229659</v>
+        <v>1.909196743627383</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.74618449116144</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>54.41116477675326</v>
+        <v>49.31714356704648</v>
       </c>
       <c r="L15">
-        <v>32.25884952788664</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>26.770929357392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>35.36616857468971</v>
+      </c>
+      <c r="N15">
+        <v>10.21281623139101</v>
+      </c>
+      <c r="O15">
+        <v>42.71661157723618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.31830732975863</v>
+        <v>8.670882159180771</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.898020221154541</v>
+        <v>4.354891606981329</v>
       </c>
       <c r="E16">
-        <v>21.81612905578362</v>
+        <v>5.505073177668622</v>
       </c>
       <c r="F16">
-        <v>68.22563450427171</v>
+        <v>52.37196598999527</v>
       </c>
       <c r="G16">
-        <v>1.887658379343858</v>
+        <v>1.92178010398007</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.6883770530143</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>52.20568060992841</v>
+        <v>47.5184391795579</v>
       </c>
       <c r="L16">
-        <v>30.92069167987859</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>25.72757559439356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>34.05721158773367</v>
+      </c>
+      <c r="N16">
+        <v>10.42958639399101</v>
+      </c>
+      <c r="O16">
+        <v>40.97677820717838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.02752216313912</v>
+        <v>8.484643774448195</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.657323709645427</v>
+        <v>4.221903465281402</v>
       </c>
       <c r="E17">
-        <v>21.26603688496959</v>
+        <v>5.503750853545045</v>
       </c>
       <c r="F17">
-        <v>66.34436763770422</v>
+        <v>51.02325071169981</v>
       </c>
       <c r="G17">
-        <v>1.899083964028938</v>
+        <v>1.929418093517752</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.66918786582318</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>50.85491046217353</v>
+        <v>46.40279036257694</v>
       </c>
       <c r="L17">
-        <v>30.10161923574697</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>25.08649519068655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>33.24640088448131</v>
+      </c>
+      <c r="N17">
+        <v>10.56188326928642</v>
+      </c>
+      <c r="O17">
+        <v>39.90747554640424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.85851981820762</v>
+        <v>8.375983408188528</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.520057233118957</v>
+        <v>4.145650449797551</v>
       </c>
       <c r="E18">
-        <v>20.95154314817702</v>
+        <v>5.504849608684262</v>
       </c>
       <c r="F18">
-        <v>65.26790870379733</v>
+        <v>50.24587898575273</v>
       </c>
       <c r="G18">
-        <v>1.905565787806312</v>
+        <v>1.933787497482588</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.6635469959379</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>50.07741663603951</v>
+        <v>45.75615826195173</v>
       </c>
       <c r="L18">
-        <v>29.63036528215214</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>24.71683420010639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>32.77682559037602</v>
+      </c>
+      <c r="N18">
+        <v>10.63779275968159</v>
+      </c>
+      <c r="O18">
+        <v>39.29115575416547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.80098903841512</v>
+        <v>8.338926545332502</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.473754518777263</v>
+        <v>4.119864111846949</v>
       </c>
       <c r="E19">
-        <v>20.84532048391962</v>
+        <v>5.505527649521602</v>
       </c>
       <c r="F19">
-        <v>64.90421547129577</v>
+        <v>49.98233596887564</v>
       </c>
       <c r="G19">
-        <v>1.907746642632051</v>
+        <v>1.935263361125056</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.66251345283597</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>49.81395736951262</v>
+        <v>45.53633127491475</v>
       </c>
       <c r="L19">
-        <v>29.47071274762176</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>24.59146722840644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>32.61725211727008</v>
+      </c>
+      <c r="N19">
+        <v>10.6634687100326</v>
+      </c>
+      <c r="O19">
+        <v>39.08221116972344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.05865573841241</v>
+        <v>8.504628252406574</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.682817551531121</v>
+        <v>4.236033364795759</v>
       </c>
       <c r="E20">
-        <v>21.32438137910692</v>
+        <v>5.503695977863435</v>
       </c>
       <c r="F20">
-        <v>66.54400735425486</v>
+        <v>51.16697771639183</v>
       </c>
       <c r="G20">
-        <v>1.89787739842904</v>
+        <v>1.928607607287733</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.67065981851523</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>50.99873246982833</v>
+        <v>46.52205470572789</v>
       </c>
       <c r="L20">
-        <v>30.18880898350312</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>25.15482396400731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>33.33303874504457</v>
+      </c>
+      <c r="N20">
+        <v>10.54782053979346</v>
+      </c>
+      <c r="O20">
+        <v>40.02142583463025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.90421043328034</v>
+        <v>9.043082262286644</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.401754173615418</v>
+        <v>4.629951100951871</v>
       </c>
       <c r="E21">
-        <v>22.96256916823196</v>
+        <v>5.520799681368458</v>
       </c>
       <c r="F21">
-        <v>72.13622443875963</v>
+        <v>55.13264444001877</v>
       </c>
       <c r="G21">
-        <v>1.863502498630164</v>
+        <v>1.905917262570757</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.76666904647009</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>54.982557129881</v>
+        <v>49.77816704438901</v>
       </c>
       <c r="L21">
-        <v>32.60567224677713</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>27.04050501044985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>35.70201175466234</v>
+      </c>
+      <c r="N21">
+        <v>10.15657916234915</v>
+      </c>
+      <c r="O21">
+        <v>43.16569658109805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.44373009570678</v>
+        <v>9.381682250721884</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.890506862241191</v>
+        <v>4.891992385056827</v>
       </c>
       <c r="E22">
-        <v>24.07021593908664</v>
+        <v>5.551825659841059</v>
       </c>
       <c r="F22">
-        <v>75.89512925301545</v>
+        <v>57.72590126623848</v>
       </c>
       <c r="G22">
-        <v>1.839754170956833</v>
+        <v>1.890733112920968</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.8912195371246</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>57.61482658310592</v>
+        <v>51.87276660711068</v>
       </c>
       <c r="L22">
-        <v>34.20389740516136</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>28.27808634047748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>37.22966640528176</v>
+      </c>
+      <c r="N22">
+        <v>9.897691926009205</v>
+      </c>
+      <c r="O22">
+        <v>45.22228332442164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.15683062363183</v>
+        <v>9.202161306029694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.627410847474648</v>
+        <v>4.751577574673655</v>
       </c>
       <c r="E23">
-        <v>23.47443489564499</v>
+        <v>5.533277487449741</v>
       </c>
       <c r="F23">
-        <v>73.87611176067705</v>
+        <v>56.34079744265043</v>
       </c>
       <c r="G23">
-        <v>1.852575527960538</v>
+        <v>1.898877606073396</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.81830073982561</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>56.20528885679374</v>
+        <v>50.75731542199831</v>
       </c>
       <c r="L23">
-        <v>33.3479890969438</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>27.61628590531184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>36.41576689353202</v>
+      </c>
+      <c r="N23">
+        <v>10.03624195806693</v>
+      </c>
+      <c r="O23">
+        <v>44.12376036901684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.04458596120638</v>
+        <v>8.495598224998069</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.671288398673807</v>
+        <v>4.229644627966874</v>
       </c>
       <c r="E24">
-        <v>21.2979985367536</v>
+        <v>5.503715031585632</v>
       </c>
       <c r="F24">
-        <v>66.45373485012352</v>
+        <v>51.10200505691196</v>
       </c>
       <c r="G24">
-        <v>1.898423152777251</v>
+        <v>1.928974094493634</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.66997769311621</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>50.93371372300049</v>
+        <v>46.46815169590281</v>
       </c>
       <c r="L24">
-        <v>30.14939180685264</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>25.12393606697623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>33.29388053213017</v>
+      </c>
+      <c r="N24">
+        <v>10.55417875038371</v>
+      </c>
+      <c r="O24">
+        <v>39.96991391080251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.77728709413392</v>
+        <v>7.795136208224268</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.871702668181268</v>
+        <v>3.674971598376876</v>
       </c>
       <c r="E25">
-        <v>19.01931819259202</v>
+        <v>5.541520731089705</v>
       </c>
       <c r="F25">
-        <v>58.65087476679835</v>
+        <v>45.3842831738225</v>
       </c>
       <c r="G25">
-        <v>1.944544555308577</v>
+        <v>1.960576145144333</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.71225960726244</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>45.21847405543085</v>
+        <v>41.64920515665083</v>
       </c>
       <c r="L25">
-        <v>26.68916600328785</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>22.39699713661339</v>
+        <v>29.80067855153652</v>
+      </c>
+      <c r="N25">
+        <v>11.10635441858014</v>
+      </c>
+      <c r="O25">
+        <v>35.43626672738826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.279104338146595</v>
+        <v>10.29043874989136</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.452559248338196</v>
+        <v>5.591944140733562</v>
       </c>
       <c r="E2">
-        <v>5.614782948422282</v>
+        <v>10.05605031166832</v>
       </c>
       <c r="F2">
-        <v>41.05729587285715</v>
+        <v>34.94076780113596</v>
       </c>
       <c r="G2">
-        <v>1.983666974444525</v>
+        <v>2.018659076075655</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.37165960169562</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.505510476629641</v>
       </c>
       <c r="K2">
-        <v>37.89343053516408</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>27.08823913389227</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.5136352680079</v>
+        <v>17.66009174000652</v>
       </c>
       <c r="O2">
-        <v>32.00311586749151</v>
+        <v>25.34282081938648</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.915405652759163</v>
+        <v>9.642069640698997</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.364645484311117</v>
+        <v>5.509542254810848</v>
       </c>
       <c r="E3">
-        <v>5.686780232742114</v>
+        <v>9.685745810263862</v>
       </c>
       <c r="F3">
-        <v>38.10537352696889</v>
+        <v>32.91094010534459</v>
       </c>
       <c r="G3">
-        <v>1.999417496598076</v>
+        <v>2.028083600574576</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.95198825171213</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.347183537701379</v>
       </c>
       <c r="K3">
-        <v>35.20253243093338</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25.1500859297025</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.79255143046492</v>
+        <v>17.03548212919463</v>
       </c>
       <c r="O3">
-        <v>29.73339614620184</v>
+        <v>23.90674037345187</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.685842699271771</v>
+        <v>9.219808664142482</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.319708259643595</v>
+        <v>5.461560319933985</v>
       </c>
       <c r="E4">
-        <v>5.740335260899519</v>
+        <v>9.459686194417195</v>
       </c>
       <c r="F4">
-        <v>36.34608154117861</v>
+        <v>31.6326495769742</v>
       </c>
       <c r="G4">
-        <v>2.009195183200092</v>
+        <v>2.03401344021896</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.6940167676315</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.253005771586769</v>
       </c>
       <c r="K4">
-        <v>33.47418160154288</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.90745760329679</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.96590657017975</v>
+        <v>16.64211895543887</v>
       </c>
       <c r="O4">
-        <v>28.4200791817251</v>
+        <v>23.00435661755815</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.590842330061303</v>
+        <v>9.041664563526798</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.303489272448964</v>
+        <v>5.442661042716776</v>
       </c>
       <c r="E5">
-        <v>5.764289828328707</v>
+        <v>9.367989606335195</v>
       </c>
       <c r="F5">
-        <v>35.62104872734283</v>
+        <v>31.10412603552634</v>
       </c>
       <c r="G5">
-        <v>2.013213826648355</v>
+        <v>2.03646800963152</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.5890011824499</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.21540471861351</v>
       </c>
       <c r="K5">
-        <v>32.7501636684725</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23.38742370588377</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.0371656245382</v>
+        <v>16.4795824747428</v>
       </c>
       <c r="O5">
-        <v>27.88071391375183</v>
+        <v>22.631762369762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.574983859379273</v>
+        <v>9.011717599186582</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.300917316967459</v>
+        <v>5.439562208516055</v>
       </c>
       <c r="E6">
-        <v>5.768390179223315</v>
+        <v>9.35279209856845</v>
       </c>
       <c r="F6">
-        <v>35.50016924068883</v>
+        <v>31.01592056669676</v>
       </c>
       <c r="G6">
-        <v>2.013883379426923</v>
+        <v>2.036877949835232</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.57157555785396</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.209208444451265</v>
       </c>
       <c r="K6">
-        <v>32.62873608541665</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23.30023634109984</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.04903769315793</v>
+        <v>16.45246571237607</v>
       </c>
       <c r="O6">
-        <v>27.79090319613022</v>
+        <v>22.56961067760957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.684567193694344</v>
+        <v>9.217430712680025</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.319481285841912</v>
+        <v>5.461302795450985</v>
       </c>
       <c r="E7">
-        <v>5.740649967158876</v>
+        <v>9.458447689027025</v>
       </c>
       <c r="F7">
-        <v>36.33633629612401</v>
+        <v>31.62555187361003</v>
       </c>
       <c r="G7">
-        <v>2.009249232709958</v>
+        <v>2.034046386399877</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.69259979827776</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.252495505254426</v>
       </c>
       <c r="K7">
-        <v>33.46449770120026</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.90050005249012</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.966864993793</v>
+        <v>16.63993565893843</v>
       </c>
       <c r="O7">
-        <v>28.41282192959853</v>
+        <v>22.99935089068951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.155063685380014</v>
+        <v>10.07189696902256</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.420260466259838</v>
+        <v>5.562987681448325</v>
       </c>
       <c r="E8">
-        <v>5.637526659057094</v>
+        <v>9.928151203337569</v>
       </c>
       <c r="F8">
-        <v>40.02424149249699</v>
+        <v>34.24773576282921</v>
       </c>
       <c r="G8">
-        <v>1.989080272681839</v>
+        <v>2.021880268192676</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.22712496895313</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.450297238287317</v>
       </c>
       <c r="K8">
-        <v>36.98105170213496</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>26.43060568993314</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.60942553690738</v>
+        <v>17.44690696866405</v>
       </c>
       <c r="O8">
-        <v>31.1828999211189</v>
+        <v>24.85210508620573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.023927063389978</v>
+        <v>11.55585895585725</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.861648816617612</v>
+        <v>5.783284541258864</v>
       </c>
       <c r="E9">
-        <v>5.520845769082653</v>
+        <v>10.85613478473568</v>
       </c>
       <c r="F9">
-        <v>47.32520399705112</v>
+        <v>39.12388785238258</v>
       </c>
       <c r="G9">
-        <v>1.949991029895559</v>
+        <v>1.999053524485955</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.26538367260171</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.86177730005797</v>
       </c>
       <c r="K9">
-        <v>43.30228087345414</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>30.99730792381755</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.92061126933314</v>
+        <v>18.94189970660578</v>
       </c>
       <c r="O9">
-        <v>36.97544424218454</v>
+        <v>28.3122953949093</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.69192575395825</v>
+        <v>12.52970929120774</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.370106197919894</v>
+        <v>5.958160215963515</v>
       </c>
       <c r="E10">
-        <v>5.505486461294418</v>
+        <v>11.53867178038662</v>
       </c>
       <c r="F10">
-        <v>52.52569084887863</v>
+        <v>42.56026200681371</v>
       </c>
       <c r="G10">
-        <v>1.92090490424433</v>
+        <v>1.982749165550266</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.0125993578436</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.17811146329449</v>
       </c>
       <c r="K10">
-        <v>47.64510491127879</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>34.14931901915767</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.41446072234798</v>
+        <v>19.97606265756467</v>
       </c>
       <c r="O10">
-        <v>41.09865793647523</v>
+        <v>30.97798833172132</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.008973903438804</v>
+        <v>12.94761701402774</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.604201464604231</v>
+        <v>6.040636439145172</v>
       </c>
       <c r="E11">
-        <v>5.518589586860536</v>
+        <v>11.84899245098897</v>
       </c>
       <c r="F11">
-        <v>54.87587167587632</v>
+        <v>44.17441385587455</v>
       </c>
       <c r="G11">
-        <v>1.90740573290005</v>
+        <v>1.975391994160349</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.34734226049186</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.325103906664331</v>
       </c>
       <c r="K11">
-        <v>49.5693096955351</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>35.54984722139617</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.18209001781966</v>
+        <v>20.43071426220713</v>
       </c>
       <c r="O11">
-        <v>42.96208831982384</v>
+        <v>32.19051817899653</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.126743726314379</v>
+        <v>13.10227306321353</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.693597236251617</v>
+        <v>6.072299201332813</v>
       </c>
       <c r="E12">
-        <v>5.526910720331036</v>
+        <v>11.96647735291014</v>
       </c>
       <c r="F12">
-        <v>55.76582882988082</v>
+        <v>44.77886327777883</v>
       </c>
       <c r="G12">
-        <v>1.902235283596376</v>
+        <v>1.972610704587438</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.47322318570794</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.38122363305016</v>
       </c>
       <c r="K12">
-        <v>50.2920595715215</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.07653612524409</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.09357304433651</v>
+        <v>20.60047737535906</v>
       </c>
       <c r="O12">
-        <v>43.66779850018709</v>
+        <v>32.64403066042652</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.1014806854339</v>
+        <v>13.06912484624272</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.674304503599449</v>
+        <v>6.065460696637758</v>
       </c>
       <c r="E13">
-        <v>5.524961023116828</v>
+        <v>11.94117585996858</v>
       </c>
       <c r="F13">
-        <v>55.57411896647545</v>
+        <v>44.64898053517213</v>
       </c>
       <c r="G13">
-        <v>1.903351810919711</v>
+        <v>1.973209562596142</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.44615360195265</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.369116621920877</v>
       </c>
       <c r="K13">
-        <v>50.13663773235765</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>35.96324618126913</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.11266402087328</v>
+        <v>20.56402467484079</v>
       </c>
       <c r="O13">
-        <v>43.51577383521173</v>
+        <v>32.54660438422949</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.018708415110357</v>
+        <v>12.96041265918633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.611538808363076</v>
+        <v>6.043232648078805</v>
       </c>
       <c r="E14">
-        <v>5.519203921486842</v>
+        <v>11.85865847319026</v>
       </c>
       <c r="F14">
-        <v>54.94907421179078</v>
+        <v>44.22427633958406</v>
       </c>
       <c r="G14">
-        <v>1.906981663722121</v>
+        <v>1.975163105347373</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.35771691037967</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.329711647399822</v>
       </c>
       <c r="K14">
-        <v>49.62887938314736</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>35.59324417758607</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.1748195797125</v>
+        <v>20.4447296434782</v>
       </c>
       <c r="O14">
-        <v>43.02013395859549</v>
+        <v>32.22794016964598</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.967711742078089</v>
+        <v>12.89335534820419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.573202273221781</v>
+        <v>6.029673795463401</v>
       </c>
       <c r="E15">
-        <v>5.516130065219958</v>
+        <v>11.80811102267505</v>
       </c>
       <c r="F15">
-        <v>54.5662917282582</v>
+        <v>43.96325868453153</v>
       </c>
       <c r="G15">
-        <v>1.909196743627383</v>
+        <v>1.97636019675451</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.30342859422277</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.305634998338668</v>
       </c>
       <c r="K15">
-        <v>49.31714356704648</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>35.36616857468971</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.21281623139101</v>
+        <v>20.37134134399622</v>
       </c>
       <c r="O15">
-        <v>42.71661157723618</v>
+        <v>32.03202365751717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.670882159180771</v>
+        <v>12.50189400312866</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.354891606981329</v>
+        <v>5.952829848734428</v>
       </c>
       <c r="E16">
-        <v>5.505073177668622</v>
+        <v>11.51838745774568</v>
       </c>
       <c r="F16">
-        <v>52.37196598999527</v>
+        <v>42.45380350123707</v>
       </c>
       <c r="G16">
-        <v>1.92178010398007</v>
+        <v>1.983230855533019</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.99060724195169</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.168568199027782</v>
       </c>
       <c r="K16">
-        <v>47.5184391795579</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>34.05721158773367</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.42958639399101</v>
+        <v>19.94602056483713</v>
       </c>
       <c r="O16">
-        <v>40.97677820717838</v>
+        <v>30.89793902842201</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.484643774448195</v>
+        <v>12.25532470262211</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.221903465281402</v>
+        <v>5.906443860560274</v>
       </c>
       <c r="E17">
-        <v>5.503750853545045</v>
+        <v>11.34059919135286</v>
       </c>
       <c r="F17">
-        <v>51.02325071169981</v>
+        <v>41.55801237907852</v>
       </c>
       <c r="G17">
-        <v>1.929418093517752</v>
+        <v>1.987458473638655</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.79727727844841</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.085279630416129</v>
       </c>
       <c r="K17">
-        <v>46.40279036257694</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>33.24640088448131</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.56188326928642</v>
+        <v>19.68095489707132</v>
       </c>
       <c r="O17">
-        <v>39.90747554640424</v>
+        <v>30.19182198273188</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.375983408188528</v>
+        <v>12.11114096131534</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.145650449797551</v>
+        <v>5.880038333278676</v>
       </c>
       <c r="E18">
-        <v>5.504849608684262</v>
+        <v>11.23832296704868</v>
       </c>
       <c r="F18">
-        <v>50.24587898575273</v>
+        <v>41.04918656822796</v>
       </c>
       <c r="G18">
-        <v>1.933787497482588</v>
+        <v>1.989895971672591</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.68559980266633</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.037663861899182</v>
       </c>
       <c r="K18">
-        <v>45.75615826195173</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>32.77682559037602</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.63779275968159</v>
+        <v>19.52701623627309</v>
       </c>
       <c r="O18">
-        <v>39.29115575416547</v>
+        <v>29.78177060295232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.338926545332502</v>
+        <v>12.06191650564069</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.119864111846949</v>
+        <v>5.871144756356741</v>
       </c>
       <c r="E19">
-        <v>5.505527649521602</v>
+        <v>11.2036915052694</v>
       </c>
       <c r="F19">
-        <v>49.98233596887564</v>
+        <v>40.8763154778205</v>
       </c>
       <c r="G19">
-        <v>1.935263361125056</v>
+        <v>1.990722387846662</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.64770975113499</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.02159149512027</v>
       </c>
       <c r="K19">
-        <v>45.53633127491475</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>32.61725211727008</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.6634687100326</v>
+        <v>19.47464540079024</v>
       </c>
       <c r="O19">
-        <v>39.08221116972344</v>
+        <v>29.64225434601354</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.504628252406574</v>
+        <v>12.28181696041142</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.236033364795759</v>
+        <v>5.911353258378711</v>
       </c>
       <c r="E20">
-        <v>5.503695977863435</v>
+        <v>11.35952691864269</v>
       </c>
       <c r="F20">
-        <v>51.16697771639183</v>
+        <v>41.65190454903217</v>
       </c>
       <c r="G20">
-        <v>1.928607607287733</v>
+        <v>1.987007854120676</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.81790819761057</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.094115806841105</v>
       </c>
       <c r="K20">
-        <v>46.52205470572789</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>33.33303874504457</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.54782053979346</v>
+        <v>19.70932576861094</v>
       </c>
       <c r="O20">
-        <v>40.02142583463025</v>
+        <v>30.26739221130735</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.043082262286644</v>
+        <v>12.99244155991445</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.629951100951871</v>
+        <v>6.049749773184692</v>
       </c>
       <c r="E21">
-        <v>5.520799681368458</v>
+        <v>11.8828964617088</v>
       </c>
       <c r="F21">
-        <v>55.13264444001877</v>
+        <v>44.34920372612575</v>
       </c>
       <c r="G21">
-        <v>1.905917262570757</v>
+        <v>1.974589207987985</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.38371778730691</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.341273295901976</v>
       </c>
       <c r="K21">
-        <v>49.77816704438901</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>35.70201175466234</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.15657916234915</v>
+        <v>20.47983568721167</v>
       </c>
       <c r="O21">
-        <v>43.16569658109805</v>
+        <v>32.32169014864983</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.381682250721884</v>
+        <v>13.43591967862776</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.891992385056827</v>
+        <v>6.142718480573711</v>
       </c>
       <c r="E22">
-        <v>5.551825659841059</v>
+        <v>12.22480831633344</v>
       </c>
       <c r="F22">
-        <v>57.72590126623848</v>
+        <v>46.09629885231928</v>
       </c>
       <c r="G22">
-        <v>1.890733112920968</v>
+        <v>1.966498197709337</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.74832924437956</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.505481212838329</v>
       </c>
       <c r="K22">
-        <v>51.87276660711068</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>37.22966640528176</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.897691926009205</v>
+        <v>20.9693490980255</v>
       </c>
       <c r="O22">
-        <v>45.22228332442164</v>
+        <v>33.6315632298137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.202161306029694</v>
+        <v>13.20113979645821</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.751577574673655</v>
+        <v>6.092864511710773</v>
       </c>
       <c r="E23">
-        <v>5.533277487449741</v>
+        <v>12.04233105620553</v>
       </c>
       <c r="F23">
-        <v>56.34079744265043</v>
+        <v>45.16731869163903</v>
       </c>
       <c r="G23">
-        <v>1.898877606073396</v>
+        <v>1.970815622323557</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.55424479086269</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.417588721244289</v>
       </c>
       <c r="K23">
-        <v>50.75731542199831</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.41576689353202</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.03624195806693</v>
+        <v>20.70941231798717</v>
       </c>
       <c r="O23">
-        <v>44.12376036901684</v>
+        <v>32.93534017295781</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.495598224998069</v>
+        <v>12.26984737358422</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.229644627966874</v>
+        <v>5.909132903045284</v>
       </c>
       <c r="E24">
-        <v>5.503715031585632</v>
+        <v>11.3509698900488</v>
       </c>
       <c r="F24">
-        <v>51.10200505691196</v>
+        <v>41.60946727808899</v>
       </c>
       <c r="G24">
-        <v>1.928974094493634</v>
+        <v>1.987211557164184</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.80858259792758</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.090120137712938</v>
       </c>
       <c r="K24">
-        <v>46.46815169590281</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>33.29388053213017</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.55417875038371</v>
+        <v>19.69650411176672</v>
       </c>
       <c r="O24">
-        <v>39.96991391080251</v>
+        <v>30.2332396885701</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.795136208224268</v>
+        <v>11.17489577285956</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.674971598376876</v>
+        <v>5.721425641350287</v>
       </c>
       <c r="E25">
-        <v>5.541520731089705</v>
+        <v>10.60477481626616</v>
       </c>
       <c r="F25">
-        <v>45.3842831738225</v>
+        <v>37.83445787832179</v>
       </c>
       <c r="G25">
-        <v>1.960576145144333</v>
+        <v>2.005134106320839</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.98659684967528</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.747989500648899</v>
       </c>
       <c r="K25">
-        <v>41.64920515665083</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>29.80067855153652</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.10635441858014</v>
+        <v>18.54803743298108</v>
       </c>
       <c r="O25">
-        <v>35.43626672738826</v>
+        <v>27.39571020213854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.29043874989136</v>
+        <v>7.973936579530329</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.591944140733562</v>
+        <v>9.053051090061398</v>
       </c>
       <c r="E2">
-        <v>10.05605031166832</v>
+        <v>13.49814074132279</v>
       </c>
       <c r="F2">
-        <v>34.94076780113596</v>
+        <v>34.16091268773715</v>
       </c>
       <c r="G2">
-        <v>2.018659076075655</v>
+        <v>3.623242451708317</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.37165960169562</v>
+        <v>17.51723746316919</v>
       </c>
       <c r="J2">
-        <v>6.505510476629641</v>
+        <v>9.848448925951388</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.66009174000652</v>
+        <v>17.13588176064243</v>
       </c>
       <c r="O2">
-        <v>25.34282081938648</v>
+        <v>25.54137488967322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.642069640698997</v>
+        <v>7.726105456002573</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.509542254810848</v>
+        <v>9.062502353047922</v>
       </c>
       <c r="E3">
-        <v>9.685745810263862</v>
+        <v>13.47515106134687</v>
       </c>
       <c r="F3">
-        <v>32.91094010534459</v>
+        <v>33.77373060893175</v>
       </c>
       <c r="G3">
-        <v>2.028083600574576</v>
+        <v>3.626715730940678</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.95198825171213</v>
+        <v>17.43545559361282</v>
       </c>
       <c r="J3">
-        <v>6.347183537701379</v>
+        <v>9.851853114224063</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.03548212919463</v>
+        <v>16.94880368210766</v>
       </c>
       <c r="O3">
-        <v>23.90674037345187</v>
+        <v>25.2832732662348</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.219808664142482</v>
+        <v>7.569968192699863</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.461560319933985</v>
+        <v>9.06961810779516</v>
       </c>
       <c r="E4">
-        <v>9.459686194417195</v>
+        <v>13.46397592245685</v>
       </c>
       <c r="F4">
-        <v>31.6326495769742</v>
+        <v>33.54394766294402</v>
       </c>
       <c r="G4">
-        <v>2.03401344021896</v>
+        <v>3.628960586445301</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.6940167676315</v>
+        <v>17.38881070702378</v>
       </c>
       <c r="J4">
-        <v>6.253005771586769</v>
+        <v>9.855753084105856</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64211895543887</v>
+        <v>16.8348163882461</v>
       </c>
       <c r="O4">
-        <v>23.00435661755815</v>
+        <v>25.13087928067921</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.041664563526798</v>
+        <v>7.505429865115993</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.442661042716776</v>
+        <v>9.072847943946</v>
       </c>
       <c r="E5">
-        <v>9.367989606335195</v>
+        <v>13.46016374882351</v>
       </c>
       <c r="F5">
-        <v>31.10412603552634</v>
+        <v>33.45241244229403</v>
       </c>
       <c r="G5">
-        <v>2.03646800963152</v>
+        <v>3.629903714509761</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.5890011824499</v>
+        <v>17.37072111760673</v>
       </c>
       <c r="J5">
-        <v>6.21540471861351</v>
+        <v>9.857797311550719</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.4795824747428</v>
+        <v>16.78863424108822</v>
       </c>
       <c r="O5">
-        <v>22.631762369762</v>
+        <v>25.07037136719887</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.011717599186582</v>
+        <v>7.494660968687292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.439562208516055</v>
+        <v>9.073404193405828</v>
       </c>
       <c r="E6">
-        <v>9.35279209856845</v>
+        <v>13.45957559886189</v>
       </c>
       <c r="F6">
-        <v>31.01592056669676</v>
+        <v>33.43734307526277</v>
       </c>
       <c r="G6">
-        <v>2.036877949835232</v>
+        <v>3.630062034442656</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.57157555785396</v>
+        <v>17.36777342702478</v>
       </c>
       <c r="J6">
-        <v>6.209208444451265</v>
+        <v>9.85816422533258</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45246571237607</v>
+        <v>16.78098333545059</v>
       </c>
       <c r="O6">
-        <v>22.56961067760957</v>
+        <v>25.06042215919854</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.217430712680025</v>
+        <v>7.569101375577702</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.461302795450985</v>
+        <v>9.069660329893301</v>
       </c>
       <c r="E7">
-        <v>9.458447689027025</v>
+        <v>13.46392150404266</v>
       </c>
       <c r="F7">
-        <v>31.62555187361003</v>
+        <v>33.54270453687643</v>
       </c>
       <c r="G7">
-        <v>2.034046386399877</v>
+        <v>3.628973190948788</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.69259979827776</v>
+        <v>17.38856299825989</v>
       </c>
       <c r="J7">
-        <v>6.252495505254426</v>
+        <v>9.855778811462464</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.63993565893843</v>
+        <v>16.8341924095864</v>
       </c>
       <c r="O7">
-        <v>22.99935089068951</v>
+        <v>25.13005671365274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.07189696902256</v>
+        <v>7.889357710724819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.562987681448325</v>
+        <v>9.056037481920358</v>
       </c>
       <c r="E8">
-        <v>9.928151203337569</v>
+        <v>13.48960515884906</v>
       </c>
       <c r="F8">
-        <v>34.24773576282921</v>
+        <v>34.02582672660026</v>
       </c>
       <c r="G8">
-        <v>2.021880268192676</v>
+        <v>3.624416804934428</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.22712496895313</v>
+        <v>17.48831115075855</v>
       </c>
       <c r="J8">
-        <v>6.450297238287317</v>
+        <v>9.849247038929464</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.44690696866405</v>
+        <v>17.07122325684954</v>
       </c>
       <c r="O8">
-        <v>24.85210508620573</v>
+        <v>25.45115907982008</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55585895585725</v>
+        <v>8.4824544463425</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.783284541258864</v>
+        <v>9.039735604397224</v>
       </c>
       <c r="E9">
-        <v>10.85613478473568</v>
+        <v>13.56317490237894</v>
       </c>
       <c r="F9">
-        <v>39.12388785238258</v>
+        <v>35.03149178840476</v>
       </c>
       <c r="G9">
-        <v>1.999053524485955</v>
+        <v>3.616367576086778</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.26538367260171</v>
+        <v>17.71126666152012</v>
       </c>
       <c r="J9">
-        <v>6.86177730005797</v>
+        <v>9.850798242082389</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.94189970660578</v>
+        <v>17.54092831277462</v>
       </c>
       <c r="O9">
-        <v>28.3122953949093</v>
+        <v>26.1260939801174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.52970929120774</v>
+        <v>8.892805469389883</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.958160215963515</v>
+        <v>9.034100795024692</v>
       </c>
       <c r="E10">
-        <v>11.53867178038662</v>
+        <v>13.63116400232306</v>
       </c>
       <c r="F10">
-        <v>42.56026200681371</v>
+        <v>35.79921196626681</v>
       </c>
       <c r="G10">
-        <v>1.982749165550266</v>
+        <v>3.610987116409541</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.0125993578436</v>
+        <v>17.89037526883937</v>
       </c>
       <c r="J10">
-        <v>7.17811146329449</v>
+        <v>9.86068428796484</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.97606265756467</v>
+        <v>17.88621396499388</v>
       </c>
       <c r="O10">
-        <v>30.97798833172132</v>
+        <v>26.64535503308267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.94761701402774</v>
+        <v>9.073239364152236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.040636439145172</v>
+        <v>9.032912160003942</v>
       </c>
       <c r="E11">
-        <v>11.84899245098897</v>
+        <v>13.66506339699835</v>
       </c>
       <c r="F11">
-        <v>44.17441385587455</v>
+        <v>36.15327824047178</v>
       </c>
       <c r="G11">
-        <v>1.975391994160349</v>
+        <v>3.608653775659024</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.34734226049186</v>
+        <v>17.97487022382017</v>
       </c>
       <c r="J11">
-        <v>7.325103906664331</v>
+        <v>9.867075651012993</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.43071426220713</v>
+        <v>18.04275315944065</v>
       </c>
       <c r="O11">
-        <v>32.19051817899653</v>
+        <v>26.88572683328339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.10227306321353</v>
+        <v>9.140615808878705</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.072299201332813</v>
+        <v>9.032659395608954</v>
       </c>
       <c r="E12">
-        <v>11.96647735291014</v>
+        <v>13.67832158929037</v>
       </c>
       <c r="F12">
-        <v>44.77886327777883</v>
+        <v>36.28792533965255</v>
       </c>
       <c r="G12">
-        <v>1.972610704587438</v>
+        <v>3.607786520170254</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.47322318570794</v>
+        <v>18.0072731922733</v>
       </c>
       <c r="J12">
-        <v>7.38122363305016</v>
+        <v>9.869767470888318</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.60047737535906</v>
+        <v>18.10190618682539</v>
       </c>
       <c r="O12">
-        <v>32.64403066042652</v>
+        <v>26.97726771910306</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.06912484624272</v>
+        <v>9.126148118074333</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.065460696637758</v>
+        <v>9.032705061912115</v>
       </c>
       <c r="E13">
-        <v>11.94117585996858</v>
+        <v>13.67544756740442</v>
       </c>
       <c r="F13">
-        <v>44.64898053517213</v>
+        <v>36.25890330013022</v>
       </c>
       <c r="G13">
-        <v>1.973209562596142</v>
+        <v>3.607972574463442</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.44615360195265</v>
+        <v>18.00027699228527</v>
       </c>
       <c r="J13">
-        <v>7.369116621920877</v>
+        <v>9.869175677268064</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.56402467484079</v>
+        <v>18.08917283935257</v>
       </c>
       <c r="O13">
-        <v>32.54660438422949</v>
+        <v>26.95753102762593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.96041265918633</v>
+        <v>9.078801786399685</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.043232648078805</v>
+        <v>9.032887411950966</v>
       </c>
       <c r="E14">
-        <v>11.85865847319026</v>
+        <v>13.66614575069779</v>
       </c>
       <c r="F14">
-        <v>44.22427633958406</v>
+        <v>36.16434502539727</v>
       </c>
       <c r="G14">
-        <v>1.975163105347373</v>
+        <v>3.608582099321983</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.35771691037967</v>
+        <v>17.97752804593542</v>
       </c>
       <c r="J14">
-        <v>7.329711647399822</v>
+        <v>9.867291671810763</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.4447296434782</v>
+        <v>18.04762249193304</v>
       </c>
       <c r="O14">
-        <v>32.22794016964598</v>
+        <v>26.89324805125582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89335534820419</v>
+        <v>9.049675604494444</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.029673795463401</v>
+        <v>9.033024795924055</v>
       </c>
       <c r="E15">
-        <v>11.80811102267505</v>
+        <v>13.66050278847509</v>
       </c>
       <c r="F15">
-        <v>43.96325868453153</v>
+        <v>36.10649589555697</v>
       </c>
       <c r="G15">
-        <v>1.97636019675451</v>
+        <v>3.608957574585209</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.30342859422277</v>
+        <v>17.9636457851309</v>
       </c>
       <c r="J15">
-        <v>7.305634998338668</v>
+        <v>9.866173000034886</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.37134134399622</v>
+        <v>18.02215401479316</v>
       </c>
       <c r="O15">
-        <v>32.03202365751717</v>
+        <v>26.85393784757937</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.50189400312866</v>
+        <v>8.880883512103345</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.952829848734428</v>
+        <v>9.034206110330461</v>
       </c>
       <c r="E16">
-        <v>11.51838745774568</v>
+        <v>13.62900788030495</v>
       </c>
       <c r="F16">
-        <v>42.45380350123707</v>
+        <v>35.7761593962845</v>
       </c>
       <c r="G16">
-        <v>1.983230855533019</v>
+        <v>3.611141896300692</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.99060724195169</v>
+        <v>17.8849117193195</v>
       </c>
       <c r="J16">
-        <v>7.168568199027782</v>
+        <v>9.8603046461317</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.94602056483713</v>
+        <v>17.87596887941633</v>
       </c>
       <c r="O16">
-        <v>30.89793902842201</v>
+        <v>26.62972294951099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.25532470262211</v>
+        <v>8.775697920554309</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.906443860560274</v>
+        <v>9.035282680972486</v>
       </c>
       <c r="E17">
-        <v>11.34059919135286</v>
+        <v>13.61044360731533</v>
       </c>
       <c r="F17">
-        <v>41.55801237907852</v>
+        <v>35.57465633020601</v>
       </c>
       <c r="G17">
-        <v>1.987458473638655</v>
+        <v>3.612511099626303</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.79727727844841</v>
+        <v>17.83736449730081</v>
       </c>
       <c r="J17">
-        <v>7.085279630416129</v>
+        <v>9.857189210147087</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.68095489707132</v>
+        <v>17.78611779882749</v>
       </c>
       <c r="O17">
-        <v>30.19182198273188</v>
+        <v>26.49318197498308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.11114096131534</v>
+        <v>8.714613687309544</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.880038333278676</v>
+        <v>9.036031310258103</v>
       </c>
       <c r="E18">
-        <v>11.23832296704868</v>
+        <v>13.60004595055646</v>
       </c>
       <c r="F18">
-        <v>41.04918656822796</v>
+        <v>35.45921881065992</v>
       </c>
       <c r="G18">
-        <v>1.989895971672591</v>
+        <v>3.613309389561931</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.68559980266633</v>
+        <v>17.81030229408061</v>
       </c>
       <c r="J18">
-        <v>7.037663861899182</v>
+        <v>9.855575641806848</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52701623627309</v>
+        <v>17.73439049486328</v>
       </c>
       <c r="O18">
-        <v>29.78177060295232</v>
+        <v>26.41504338001178</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.06191650564069</v>
+        <v>8.693832984641938</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.871144756356741</v>
+        <v>9.036307019224486</v>
       </c>
       <c r="E19">
-        <v>11.2036915052694</v>
+        <v>13.59657374906437</v>
       </c>
       <c r="F19">
-        <v>40.8763154778205</v>
+        <v>35.42021674247732</v>
       </c>
       <c r="G19">
-        <v>1.990722387846662</v>
+        <v>3.613581527980174</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.64770975113499</v>
+        <v>17.80118939117589</v>
       </c>
       <c r="J19">
-        <v>7.02159149512027</v>
+        <v>9.855059968827746</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.47464540079024</v>
+        <v>17.71686987832943</v>
       </c>
       <c r="O19">
-        <v>29.64225434601354</v>
+        <v>26.3886574843856</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.28181696041142</v>
+        <v>8.786955979033163</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.911353258378711</v>
+        <v>9.035154686480276</v>
       </c>
       <c r="E20">
-        <v>11.35952691864269</v>
+        <v>13.61239086607596</v>
       </c>
       <c r="F20">
-        <v>41.65190454903217</v>
+        <v>35.59605979171533</v>
       </c>
       <c r="G20">
-        <v>1.987007854120676</v>
+        <v>3.61236423266498</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.81790819761057</v>
+        <v>17.84239660775763</v>
       </c>
       <c r="J20">
-        <v>7.094115806841105</v>
+        <v>9.857502400698968</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.70932576861094</v>
+        <v>17.79568785272514</v>
       </c>
       <c r="O20">
-        <v>30.26739221130735</v>
+        <v>26.50767657635921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99244155991445</v>
+        <v>9.092734726993232</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.049749773184692</v>
+        <v>9.032828498380381</v>
       </c>
       <c r="E21">
-        <v>11.8828964617088</v>
+        <v>13.66886653821914</v>
       </c>
       <c r="F21">
-        <v>44.34920372612575</v>
+        <v>36.19210460187975</v>
       </c>
       <c r="G21">
-        <v>1.974589207987985</v>
+        <v>3.608402624698795</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.38371778730691</v>
+        <v>17.98419914949331</v>
       </c>
       <c r="J21">
-        <v>7.341273295901976</v>
+        <v>9.867837687640529</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.47983568721167</v>
+        <v>18.05983060728494</v>
       </c>
       <c r="O21">
-        <v>32.32169014864983</v>
+        <v>26.91211612260957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43591967862776</v>
+        <v>9.287021218569393</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.142718480573711</v>
+        <v>9.032458281489077</v>
       </c>
       <c r="E22">
-        <v>12.22480831633344</v>
+        <v>13.70822871588955</v>
       </c>
       <c r="F22">
-        <v>46.09629885231928</v>
+        <v>36.58491920749592</v>
       </c>
       <c r="G22">
-        <v>1.966498197709337</v>
+        <v>3.605908622599556</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.74832924437956</v>
+        <v>18.07923203987226</v>
       </c>
       <c r="J22">
-        <v>7.505481212838329</v>
+        <v>9.876174675601838</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.9693490980255</v>
+        <v>18.23171317604656</v>
       </c>
       <c r="O22">
-        <v>33.6315632298137</v>
+        <v>27.17941864542292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20113979645821</v>
+        <v>9.183851410766971</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.092864511710773</v>
+        <v>9.032550767287978</v>
       </c>
       <c r="E23">
-        <v>12.04233105620553</v>
+        <v>13.68699813834026</v>
       </c>
       <c r="F23">
-        <v>45.16731869163903</v>
+        <v>36.37500870070366</v>
       </c>
       <c r="G23">
-        <v>1.970815622323557</v>
+        <v>3.607231046283911</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.55424479086269</v>
+        <v>18.02830472145931</v>
       </c>
       <c r="J23">
-        <v>7.417588721244289</v>
+        <v>9.871580611595775</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.70941231798717</v>
+        <v>18.14006050298208</v>
       </c>
       <c r="O23">
-        <v>32.93534017295781</v>
+        <v>27.0365083911838</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.26984737358422</v>
+        <v>8.781868111808423</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.909132903045284</v>
+        <v>9.035212148792816</v>
       </c>
       <c r="E24">
-        <v>11.3509698900488</v>
+        <v>13.61150965277894</v>
       </c>
       <c r="F24">
-        <v>41.60946727808899</v>
+        <v>35.58638200238035</v>
       </c>
       <c r="G24">
-        <v>1.987211557164184</v>
+        <v>3.612430596583006</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.80858259792758</v>
+        <v>17.84012073718832</v>
       </c>
       <c r="J24">
-        <v>7.090120137712938</v>
+        <v>9.85736025418872</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.69650411176672</v>
+        <v>17.79136144795662</v>
       </c>
       <c r="O24">
-        <v>30.2332396885701</v>
+        <v>26.50112243756142</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17489577285956</v>
+        <v>8.326196084739939</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.721425641350287</v>
+        <v>9.043031288582753</v>
       </c>
       <c r="E25">
-        <v>10.60477481626616</v>
+        <v>13.54080724258617</v>
       </c>
       <c r="F25">
-        <v>37.83445787832179</v>
+        <v>34.75387368245401</v>
       </c>
       <c r="G25">
-        <v>2.005134106320839</v>
+        <v>3.618450967720129</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.98659684967528</v>
+        <v>17.64816122966616</v>
       </c>
       <c r="J25">
-        <v>6.747989500648899</v>
+        <v>9.848841359131361</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.54803743298108</v>
+        <v>17.41362653806359</v>
       </c>
       <c r="O25">
-        <v>27.39571020213854</v>
+        <v>25.93908695842768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.973936579530329</v>
+        <v>10.29043874989134</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.053051090061398</v>
+        <v>5.591944140733419</v>
       </c>
       <c r="E2">
-        <v>13.49814074132279</v>
+        <v>10.05605031166838</v>
       </c>
       <c r="F2">
-        <v>34.16091268773715</v>
+        <v>34.94076780113592</v>
       </c>
       <c r="G2">
-        <v>3.623242451708317</v>
+        <v>2.018659076075521</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.51723746316919</v>
+        <v>16.37165960169562</v>
       </c>
       <c r="J2">
-        <v>9.848448925951388</v>
+        <v>6.505510476629703</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.13588176064243</v>
+        <v>17.66009174000652</v>
       </c>
       <c r="O2">
-        <v>25.54137488967322</v>
+        <v>25.34282081938645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.726105456002573</v>
+        <v>9.642069640699011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.062502353047922</v>
+        <v>5.509542254810794</v>
       </c>
       <c r="E3">
-        <v>13.47515106134687</v>
+        <v>9.685745810263839</v>
       </c>
       <c r="F3">
-        <v>33.77373060893175</v>
+        <v>32.91094010534452</v>
       </c>
       <c r="G3">
-        <v>3.626715730940678</v>
+        <v>2.028083600574841</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.43545559361282</v>
+        <v>15.95198825171206</v>
       </c>
       <c r="J3">
-        <v>9.851853114224063</v>
+        <v>6.347183537701406</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.94880368210766</v>
+        <v>17.03548212919459</v>
       </c>
       <c r="O3">
-        <v>25.2832732662348</v>
+        <v>23.90674037345181</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.569968192699863</v>
+        <v>9.219808664142498</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.06961810779516</v>
+        <v>5.461560319933934</v>
       </c>
       <c r="E4">
-        <v>13.46397592245685</v>
+        <v>9.459686194417161</v>
       </c>
       <c r="F4">
-        <v>33.54394766294402</v>
+        <v>31.63264957697412</v>
       </c>
       <c r="G4">
-        <v>3.628960586445301</v>
+        <v>2.03401344021883</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.38881070702378</v>
+        <v>15.69401676763148</v>
       </c>
       <c r="J4">
-        <v>9.855753084105856</v>
+        <v>6.253005771586789</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.8348163882461</v>
+        <v>16.64211895543886</v>
       </c>
       <c r="O4">
-        <v>25.13087928067921</v>
+        <v>23.00435661755813</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.505429865115993</v>
+        <v>9.041664563526798</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.072847943946</v>
+        <v>5.442661042716775</v>
       </c>
       <c r="E5">
-        <v>13.46016374882351</v>
+        <v>9.367989606335154</v>
       </c>
       <c r="F5">
-        <v>33.45241244229403</v>
+        <v>31.10412603552636</v>
       </c>
       <c r="G5">
-        <v>3.629903714509761</v>
+        <v>2.036468009631654</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.37072111760673</v>
+        <v>15.58900118244992</v>
       </c>
       <c r="J5">
-        <v>9.857797311550719</v>
+        <v>6.215404718613492</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78863424108822</v>
+        <v>16.47958247474283</v>
       </c>
       <c r="O5">
-        <v>25.07037136719887</v>
+        <v>22.63176236976201</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.494660968687292</v>
+        <v>9.011717599186598</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.073404193405828</v>
+        <v>5.439562208516101</v>
       </c>
       <c r="E6">
-        <v>13.45957559886189</v>
+        <v>9.352792098568376</v>
       </c>
       <c r="F6">
-        <v>33.43734307526277</v>
+        <v>31.01592056669675</v>
       </c>
       <c r="G6">
-        <v>3.630062034442656</v>
+        <v>2.036877949835234</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.36777342702478</v>
+        <v>15.57157555785395</v>
       </c>
       <c r="J6">
-        <v>9.85816422533258</v>
+        <v>6.209208444451158</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78098333545059</v>
+        <v>16.45246571237606</v>
       </c>
       <c r="O6">
-        <v>25.06042215919854</v>
+        <v>22.56961067760955</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.569101375577702</v>
+        <v>9.217430712679993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.069660329893301</v>
+        <v>5.461302795451072</v>
       </c>
       <c r="E7">
-        <v>13.46392150404266</v>
+        <v>9.458447689027077</v>
       </c>
       <c r="F7">
-        <v>33.54270453687643</v>
+        <v>31.62555187361003</v>
       </c>
       <c r="G7">
-        <v>3.628973190948788</v>
+        <v>2.034046386400146</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.38856299825989</v>
+        <v>15.69259979827783</v>
       </c>
       <c r="J7">
-        <v>9.855778811462464</v>
+        <v>6.252495505254465</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.8341924095864</v>
+        <v>16.63993565893848</v>
       </c>
       <c r="O7">
-        <v>25.13005671365274</v>
+        <v>22.99935089068951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.889357710724819</v>
+        <v>10.07189696902261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.056037481920358</v>
+        <v>5.56298768144844</v>
       </c>
       <c r="E8">
-        <v>13.48960515884906</v>
+        <v>9.928151203337594</v>
       </c>
       <c r="F8">
-        <v>34.02582672660026</v>
+        <v>34.24773576282923</v>
       </c>
       <c r="G8">
-        <v>3.624416804934428</v>
+        <v>2.021880268192545</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.48831115075855</v>
+        <v>16.22712496895311</v>
       </c>
       <c r="J8">
-        <v>9.849247038929464</v>
+        <v>6.450297238287344</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.07122325684954</v>
+        <v>17.44690696866405</v>
       </c>
       <c r="O8">
-        <v>25.45115907982008</v>
+        <v>24.85210508620573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.4824544463425</v>
+        <v>11.55585895585729</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.039735604397224</v>
+        <v>5.783284541258827</v>
       </c>
       <c r="E9">
-        <v>13.56317490237894</v>
+        <v>10.85613478473568</v>
       </c>
       <c r="F9">
-        <v>35.03149178840476</v>
+        <v>39.12388785238253</v>
       </c>
       <c r="G9">
-        <v>3.616367576086778</v>
+        <v>1.999053524485951</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.71126666152012</v>
+        <v>17.2653836726017</v>
       </c>
       <c r="J9">
-        <v>9.850798242082389</v>
+        <v>6.861777300058</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.54092831277462</v>
+        <v>18.9418997066058</v>
       </c>
       <c r="O9">
-        <v>26.1260939801174</v>
+        <v>28.31229539490926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.892805469389883</v>
+        <v>12.52970929120776</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.034100795024692</v>
+        <v>5.958160215963445</v>
       </c>
       <c r="E10">
-        <v>13.63116400232306</v>
+        <v>11.53867178038662</v>
       </c>
       <c r="F10">
-        <v>35.79921196626681</v>
+        <v>42.56026200681368</v>
       </c>
       <c r="G10">
-        <v>3.610987116409541</v>
+        <v>1.982749165550131</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.89037526883937</v>
+        <v>18.01259935784356</v>
       </c>
       <c r="J10">
-        <v>9.86068428796484</v>
+        <v>7.178111463294504</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.88621396499388</v>
+        <v>19.97606265756465</v>
       </c>
       <c r="O10">
-        <v>26.64535503308267</v>
+        <v>30.97798833172127</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.073239364152236</v>
+        <v>12.94761701402772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.032912160003942</v>
+        <v>6.040636439145238</v>
       </c>
       <c r="E11">
-        <v>13.66506339699835</v>
+        <v>11.848992450989</v>
       </c>
       <c r="F11">
-        <v>36.15327824047178</v>
+        <v>44.17441385587455</v>
       </c>
       <c r="G11">
-        <v>3.608653775659024</v>
+        <v>1.975391994160089</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.97487022382017</v>
+        <v>18.34734226049184</v>
       </c>
       <c r="J11">
-        <v>9.867075651012993</v>
+        <v>7.32510390666434</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.04275315944065</v>
+        <v>20.43071426220712</v>
       </c>
       <c r="O11">
-        <v>26.88572683328339</v>
+        <v>32.19051817899651</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.140615808878705</v>
+        <v>13.1022730632135</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.032659395608954</v>
+        <v>6.072299201332851</v>
       </c>
       <c r="E12">
-        <v>13.67832158929037</v>
+        <v>11.96647735291013</v>
       </c>
       <c r="F12">
-        <v>36.28792533965255</v>
+        <v>44.77886327777881</v>
       </c>
       <c r="G12">
-        <v>3.607786520170254</v>
+        <v>1.972610704587438</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.0072731922733</v>
+        <v>18.47322318570792</v>
       </c>
       <c r="J12">
-        <v>9.869767470888318</v>
+        <v>7.381223633050143</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.10190618682539</v>
+        <v>20.60047737535903</v>
       </c>
       <c r="O12">
-        <v>26.97726771910306</v>
+        <v>32.6440306604265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.126148118074333</v>
+        <v>13.06912484624272</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.032705061912115</v>
+        <v>6.065460696637771</v>
       </c>
       <c r="E13">
-        <v>13.67544756740442</v>
+        <v>11.94117585996858</v>
       </c>
       <c r="F13">
-        <v>36.25890330013022</v>
+        <v>44.64898053517218</v>
       </c>
       <c r="G13">
-        <v>3.607972574463442</v>
+        <v>1.973209562596271</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.00027699228527</v>
+        <v>18.44615360195265</v>
       </c>
       <c r="J13">
-        <v>9.869175677268064</v>
+        <v>7.369116621920877</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.08917283935257</v>
+        <v>20.56402467484079</v>
       </c>
       <c r="O13">
-        <v>26.95753102762593</v>
+        <v>32.54660438422953</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.078801786399685</v>
+        <v>12.96041265918626</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.032887411950966</v>
+        <v>6.043232648078791</v>
       </c>
       <c r="E14">
-        <v>13.66614575069779</v>
+        <v>11.85865847319023</v>
       </c>
       <c r="F14">
-        <v>36.16434502539727</v>
+        <v>44.22427633958398</v>
       </c>
       <c r="G14">
-        <v>3.608582099321983</v>
+        <v>1.975163105347242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.97752804593542</v>
+        <v>18.35771691037969</v>
       </c>
       <c r="J14">
-        <v>9.867291671810763</v>
+        <v>7.329711647399807</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.04762249193304</v>
+        <v>20.4447296434782</v>
       </c>
       <c r="O14">
-        <v>26.89324805125582</v>
+        <v>32.2279401696459</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.049675604494444</v>
+        <v>12.89335534820419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.033024795924055</v>
+        <v>6.029673795463409</v>
       </c>
       <c r="E15">
-        <v>13.66050278847509</v>
+        <v>11.80811102267504</v>
       </c>
       <c r="F15">
-        <v>36.10649589555697</v>
+        <v>43.96325868453144</v>
       </c>
       <c r="G15">
-        <v>3.608957574585209</v>
+        <v>1.976360196754371</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.9636457851309</v>
+        <v>18.30342859422268</v>
       </c>
       <c r="J15">
-        <v>9.866173000034886</v>
+        <v>7.305634998338663</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.02215401479316</v>
+        <v>20.37134134399616</v>
       </c>
       <c r="O15">
-        <v>26.85393784757937</v>
+        <v>32.03202365751711</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.880883512103345</v>
+        <v>12.5018940031287</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.034206110330461</v>
+        <v>5.952829848734422</v>
       </c>
       <c r="E16">
-        <v>13.62900788030495</v>
+        <v>11.51838745774569</v>
       </c>
       <c r="F16">
-        <v>35.7761593962845</v>
+        <v>42.45380350123706</v>
       </c>
       <c r="G16">
-        <v>3.611141896300692</v>
+        <v>1.983230855533017</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.8849117193195</v>
+        <v>17.99060724195167</v>
       </c>
       <c r="J16">
-        <v>9.8603046461317</v>
+        <v>7.168568199027789</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.87596887941633</v>
+        <v>19.94602056483714</v>
       </c>
       <c r="O16">
-        <v>26.62972294951099</v>
+        <v>30.89793902842199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.775697920554309</v>
+        <v>12.25532470262207</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.035282680972486</v>
+        <v>5.90644386056023</v>
       </c>
       <c r="E17">
-        <v>13.61044360731533</v>
+        <v>11.34059919135278</v>
       </c>
       <c r="F17">
-        <v>35.57465633020601</v>
+        <v>41.55801237907851</v>
       </c>
       <c r="G17">
-        <v>3.612511099626303</v>
+        <v>1.987458473638516</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.83736449730081</v>
+        <v>17.7972772784484</v>
       </c>
       <c r="J17">
-        <v>9.857189210147087</v>
+        <v>7.085279630416095</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.78611779882749</v>
+        <v>19.68095489707129</v>
       </c>
       <c r="O17">
-        <v>26.49318197498308</v>
+        <v>30.1918219827319</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.714613687309544</v>
+        <v>12.11114096131531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.036031310258103</v>
+        <v>5.880038333278735</v>
       </c>
       <c r="E18">
-        <v>13.60004595055646</v>
+        <v>11.23832296704867</v>
       </c>
       <c r="F18">
-        <v>35.45921881065992</v>
+        <v>41.04918656822797</v>
       </c>
       <c r="G18">
-        <v>3.613309389561931</v>
+        <v>1.989895971672587</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.81030229408061</v>
+        <v>17.68559980266635</v>
       </c>
       <c r="J18">
-        <v>9.855575641806848</v>
+        <v>7.037663861899178</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.73439049486328</v>
+        <v>19.52701623627305</v>
       </c>
       <c r="O18">
-        <v>26.41504338001178</v>
+        <v>29.78177060295233</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.693832984641938</v>
+        <v>12.06191650564071</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.036307019224486</v>
+        <v>5.871144756356775</v>
       </c>
       <c r="E19">
-        <v>13.59657374906437</v>
+        <v>11.20369150526935</v>
       </c>
       <c r="F19">
-        <v>35.42021674247732</v>
+        <v>40.87631547782048</v>
       </c>
       <c r="G19">
-        <v>3.613581527980174</v>
+        <v>1.990722387846795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.80118939117589</v>
+        <v>17.64770975113495</v>
       </c>
       <c r="J19">
-        <v>9.855059968827746</v>
+        <v>7.021591495120198</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.71686987832943</v>
+        <v>19.47464540079022</v>
       </c>
       <c r="O19">
-        <v>26.3886574843856</v>
+        <v>29.64225434601351</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.786955979033163</v>
+        <v>12.28181696041141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.035154686480276</v>
+        <v>5.911353258378625</v>
       </c>
       <c r="E20">
-        <v>13.61239086607596</v>
+        <v>11.3595269186427</v>
       </c>
       <c r="F20">
-        <v>35.59605979171533</v>
+        <v>41.65190454903219</v>
       </c>
       <c r="G20">
-        <v>3.61236423266498</v>
+        <v>1.987007854120673</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.84239660775763</v>
+        <v>17.81790819761054</v>
       </c>
       <c r="J20">
-        <v>9.857502400698968</v>
+        <v>7.094115806841128</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79568785272514</v>
+        <v>19.70932576861091</v>
       </c>
       <c r="O20">
-        <v>26.50767657635921</v>
+        <v>30.2673922113074</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.092734726993232</v>
+        <v>12.99244155991445</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.032828498380381</v>
+        <v>6.049749773184647</v>
       </c>
       <c r="E21">
-        <v>13.66886653821914</v>
+        <v>11.88289646170879</v>
       </c>
       <c r="F21">
-        <v>36.19210460187975</v>
+        <v>44.34920372612574</v>
       </c>
       <c r="G21">
-        <v>3.608402624698795</v>
+        <v>1.974589207987854</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.98419914949331</v>
+        <v>18.38371778730687</v>
       </c>
       <c r="J21">
-        <v>9.867837687640529</v>
+        <v>7.341273295901973</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.05983060728494</v>
+        <v>20.47983568721167</v>
       </c>
       <c r="O21">
-        <v>26.91211612260957</v>
+        <v>32.32169014864982</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.287021218569393</v>
+        <v>13.43591967862774</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.032458281489077</v>
+        <v>6.142718480573712</v>
       </c>
       <c r="E22">
-        <v>13.70822871588955</v>
+        <v>12.22480831633344</v>
       </c>
       <c r="F22">
-        <v>36.58491920749592</v>
+        <v>46.09629885231931</v>
       </c>
       <c r="G22">
-        <v>3.605908622599556</v>
+        <v>1.96649819770934</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.07923203987226</v>
+        <v>18.74832924437961</v>
       </c>
       <c r="J22">
-        <v>9.876174675601838</v>
+        <v>7.505481212838318</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.23171317604656</v>
+        <v>20.96934909802553</v>
       </c>
       <c r="O22">
-        <v>27.17941864542292</v>
+        <v>33.63156322981374</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.183851410766971</v>
+        <v>13.20113979645826</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.032550767287978</v>
+        <v>6.092864511710752</v>
       </c>
       <c r="E23">
-        <v>13.68699813834026</v>
+        <v>12.04233105620551</v>
       </c>
       <c r="F23">
-        <v>36.37500870070366</v>
+        <v>45.16731869163901</v>
       </c>
       <c r="G23">
-        <v>3.607231046283911</v>
+        <v>1.970815622323557</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.02830472145931</v>
+        <v>18.55424479086268</v>
       </c>
       <c r="J23">
-        <v>9.871580611595775</v>
+        <v>7.417588721244263</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.14006050298208</v>
+        <v>20.70941231798719</v>
       </c>
       <c r="O23">
-        <v>27.0365083911838</v>
+        <v>32.93534017295777</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.781868111808423</v>
+        <v>12.2698473735842</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.035212148792816</v>
+        <v>5.909132903045245</v>
       </c>
       <c r="E24">
-        <v>13.61150965277894</v>
+        <v>11.35096989004879</v>
       </c>
       <c r="F24">
-        <v>35.58638200238035</v>
+        <v>41.60946727808903</v>
       </c>
       <c r="G24">
-        <v>3.612430596583006</v>
+        <v>1.987211557164181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.84012073718832</v>
+        <v>17.80858259792758</v>
       </c>
       <c r="J24">
-        <v>9.85736025418872</v>
+        <v>7.090120137712939</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79136144795662</v>
+        <v>19.69650411176672</v>
       </c>
       <c r="O24">
-        <v>26.50112243756142</v>
+        <v>30.23323968857018</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.326196084739939</v>
+        <v>11.17489577285955</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.043031288582753</v>
+        <v>5.721425641350461</v>
       </c>
       <c r="E25">
-        <v>13.54080724258617</v>
+        <v>10.60477481626622</v>
       </c>
       <c r="F25">
-        <v>34.75387368245401</v>
+        <v>37.8344578783218</v>
       </c>
       <c r="G25">
-        <v>3.618450967720129</v>
+        <v>2.005134106320972</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.64816122966616</v>
+        <v>16.98659684967527</v>
       </c>
       <c r="J25">
-        <v>9.848841359131361</v>
+        <v>6.747989500648892</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.41362653806359</v>
+        <v>18.54803743298107</v>
       </c>
       <c r="O25">
-        <v>25.93908695842768</v>
+        <v>27.39571020213854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.29043874989134</v>
+        <v>6.845227706912457</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.591944140733419</v>
+        <v>4.635144121765051</v>
       </c>
       <c r="E2">
-        <v>10.05605031166838</v>
+        <v>16.2612825298038</v>
       </c>
       <c r="F2">
-        <v>34.94076780113592</v>
+        <v>16.32165708678264</v>
       </c>
       <c r="G2">
-        <v>2.018659076075521</v>
+        <v>19.79496134909746</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.218429341507457</v>
       </c>
       <c r="I2">
-        <v>16.37165960169562</v>
+        <v>3.14525947713363</v>
       </c>
       <c r="J2">
-        <v>6.505510476629703</v>
+        <v>7.87794407424384</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.42949929257415</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.58654364142039</v>
       </c>
       <c r="N2">
-        <v>17.66009174000652</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>25.34282081938645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.27295636442641</v>
+      </c>
+      <c r="P2">
+        <v>12.31932608424994</v>
+      </c>
+      <c r="Q2">
+        <v>12.70171472847357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.642069640699011</v>
+        <v>6.472127242710695</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.509542254810794</v>
+        <v>4.424105438460387</v>
       </c>
       <c r="E3">
-        <v>9.685745810263839</v>
+        <v>15.50814486244725</v>
       </c>
       <c r="F3">
-        <v>32.91094010534452</v>
+        <v>15.82300360223219</v>
       </c>
       <c r="G3">
-        <v>2.028083600574841</v>
+        <v>19.08761608155207</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.0292049779077</v>
       </c>
       <c r="I3">
-        <v>15.95198825171206</v>
+        <v>3.226384871225713</v>
       </c>
       <c r="J3">
-        <v>6.347183537701406</v>
+        <v>7.85673472223229</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.60047857281158</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.85287981142898</v>
       </c>
       <c r="N3">
-        <v>17.03548212919459</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.90674037345181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.39411696431632</v>
+      </c>
+      <c r="P3">
+        <v>12.42100750436306</v>
+      </c>
+      <c r="Q3">
+        <v>12.52606826555998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.219808664142498</v>
+        <v>6.226690644331896</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.461560319933934</v>
+        <v>4.288767082904217</v>
       </c>
       <c r="E4">
-        <v>9.459686194417161</v>
+        <v>15.02474136495083</v>
       </c>
       <c r="F4">
-        <v>31.63264957697412</v>
+        <v>15.51794839990331</v>
       </c>
       <c r="G4">
-        <v>2.03401344021883</v>
+        <v>18.65224508922386</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.908710700352432</v>
       </c>
       <c r="I4">
-        <v>15.69401676763148</v>
+        <v>3.278962717666957</v>
       </c>
       <c r="J4">
-        <v>6.253005771586789</v>
+        <v>7.846841002056347</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.70762389146383</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.38262154599686</v>
       </c>
       <c r="N4">
-        <v>16.64211895543886</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.00435661755813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.82766602810716</v>
+      </c>
+      <c r="P4">
+        <v>12.48547089016495</v>
+      </c>
+      <c r="Q4">
+        <v>12.42350600307781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.041664563526798</v>
+        <v>6.109968629650858</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.442661042716775</v>
+        <v>4.232896478066762</v>
       </c>
       <c r="E5">
-        <v>9.367989606335154</v>
+        <v>14.82024405498826</v>
       </c>
       <c r="F5">
-        <v>31.10412603552636</v>
+        <v>15.39034348162157</v>
       </c>
       <c r="G5">
-        <v>2.036468009631654</v>
+        <v>18.46793212586064</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.858461877001524</v>
       </c>
       <c r="I5">
-        <v>15.58900118244992</v>
+        <v>3.303999320456331</v>
       </c>
       <c r="J5">
-        <v>6.215404718613492</v>
+        <v>7.842469320292164</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.7493343441851</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.1906569083893</v>
       </c>
       <c r="N5">
-        <v>16.47958247474283</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>22.63176236976201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.59269475909348</v>
+      </c>
+      <c r="P5">
+        <v>12.51247558280683</v>
+      </c>
+      <c r="Q5">
+        <v>12.38021534221274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.011717599186598</v>
+        <v>6.074862109664096</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.439562208516101</v>
+        <v>4.224385870571025</v>
       </c>
       <c r="E6">
-        <v>9.352792098568376</v>
+        <v>14.78308862998995</v>
       </c>
       <c r="F6">
-        <v>31.01592056669675</v>
+        <v>15.36459996591035</v>
       </c>
       <c r="G6">
-        <v>2.036877949835234</v>
+        <v>18.42890733242848</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.849991487242778</v>
       </c>
       <c r="I6">
-        <v>15.57157555785395</v>
+        <v>3.311924904690423</v>
       </c>
       <c r="J6">
-        <v>6.209208444451158</v>
+        <v>7.840432689275067</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.7532603465692</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.16402774520286</v>
       </c>
       <c r="N6">
-        <v>16.45246571237606</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>22.56961067760955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.55633512941328</v>
+      </c>
+      <c r="P6">
+        <v>12.51727751831702</v>
+      </c>
+      <c r="Q6">
+        <v>12.36964373934455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.217430712679993</v>
+        <v>6.183672122973436</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.461302795451072</v>
+        <v>4.290313278531678</v>
       </c>
       <c r="E7">
-        <v>9.458447689027077</v>
+        <v>15.01424811132118</v>
       </c>
       <c r="F7">
-        <v>31.62555187361003</v>
+        <v>15.50384405736581</v>
       </c>
       <c r="G7">
-        <v>2.034046386400146</v>
+        <v>18.62705610093182</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.907878928440156</v>
       </c>
       <c r="I7">
-        <v>15.69259979827783</v>
+        <v>3.289120712511288</v>
       </c>
       <c r="J7">
-        <v>6.252495505254465</v>
+        <v>7.843088860960405</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.69995043908251</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.39493087912441</v>
       </c>
       <c r="N7">
-        <v>16.63993565893848</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>22.99935089068951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.83268173514616</v>
+      </c>
+      <c r="P7">
+        <v>12.48669678917493</v>
+      </c>
+      <c r="Q7">
+        <v>12.41351848707139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.07189696902261</v>
+        <v>6.668758130863393</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.56298768144844</v>
+        <v>4.566490571186719</v>
       </c>
       <c r="E8">
-        <v>9.928151203337594</v>
+        <v>15.99639086704849</v>
       </c>
       <c r="F8">
-        <v>34.24773576282923</v>
+        <v>16.1339034395239</v>
       </c>
       <c r="G8">
-        <v>2.021880268192545</v>
+        <v>19.52285207323872</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.153884331093826</v>
       </c>
       <c r="I8">
-        <v>16.22712496895311</v>
+        <v>3.184988153776037</v>
       </c>
       <c r="J8">
-        <v>6.450297238287344</v>
+        <v>7.865157703892864</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.47746324230436</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.35637870386376</v>
       </c>
       <c r="N8">
-        <v>17.44690696866405</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.85210508620573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.98558257743124</v>
+      </c>
+      <c r="P8">
+        <v>12.35546408702644</v>
+      </c>
+      <c r="Q8">
+        <v>12.62792581213501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55585895585729</v>
+        <v>7.555198777091046</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.783284541258827</v>
+        <v>5.05732324482784</v>
       </c>
       <c r="E9">
-        <v>10.85613478473568</v>
+        <v>17.76395959832154</v>
       </c>
       <c r="F9">
-        <v>39.12388785238253</v>
+        <v>17.39195633904079</v>
       </c>
       <c r="G9">
-        <v>1.999053524485951</v>
+        <v>21.29868590740587</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.602970429860488</v>
       </c>
       <c r="I9">
-        <v>17.2653836726017</v>
+        <v>2.986660701948759</v>
       </c>
       <c r="J9">
-        <v>6.861777300058</v>
+        <v>7.940524326347951</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.07191447302688</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.05597198959062</v>
       </c>
       <c r="N9">
-        <v>18.9418997066058</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>28.31229539490926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.01663016286804</v>
+      </c>
+      <c r="P9">
+        <v>12.11220615996847</v>
+      </c>
+      <c r="Q9">
+        <v>13.10616084919305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.52970929120776</v>
+        <v>8.121726659765415</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.958160215963445</v>
+        <v>5.407273778758235</v>
       </c>
       <c r="E10">
-        <v>11.53867178038662</v>
+        <v>18.44195953807392</v>
       </c>
       <c r="F10">
-        <v>42.56026200681368</v>
+        <v>18.21694405193073</v>
       </c>
       <c r="G10">
-        <v>1.982749165550131</v>
+        <v>22.41428891798457</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.890763609461648</v>
       </c>
       <c r="I10">
-        <v>18.01259935784356</v>
+        <v>2.86165256700636</v>
       </c>
       <c r="J10">
-        <v>7.178111463294504</v>
+        <v>7.984186222174543</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.76858509754647</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.20462460088367</v>
       </c>
       <c r="N10">
-        <v>19.97606265756465</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>30.97798833172127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.09252082433975</v>
+      </c>
+      <c r="P10">
+        <v>11.95381553982276</v>
+      </c>
+      <c r="Q10">
+        <v>13.41000986827106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.94761701402772</v>
+        <v>8.439859272635086</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.040636439145238</v>
+        <v>5.719888100985864</v>
       </c>
       <c r="E11">
-        <v>11.848992450989</v>
+        <v>14.55835349896307</v>
       </c>
       <c r="F11">
-        <v>44.17441385587455</v>
+        <v>17.82837771531122</v>
       </c>
       <c r="G11">
-        <v>1.975391994160089</v>
+        <v>21.54306125949264</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.48364941010715</v>
       </c>
       <c r="I11">
-        <v>18.34734226049184</v>
+        <v>2.841741196526786</v>
       </c>
       <c r="J11">
-        <v>7.32510390666434</v>
+        <v>7.76933393987298</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.53921726823117</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.69324778774368</v>
       </c>
       <c r="N11">
-        <v>20.43071426220712</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>32.19051817899651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.13704608280072</v>
+      </c>
+      <c r="P11">
+        <v>11.98207791874927</v>
+      </c>
+      <c r="Q11">
+        <v>12.95037731382493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.1022730632135</v>
+        <v>8.648603499738961</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.072299201332851</v>
+        <v>5.910990348680718</v>
       </c>
       <c r="E12">
-        <v>11.96647735291013</v>
+        <v>11.56447825662239</v>
       </c>
       <c r="F12">
-        <v>44.77886327777881</v>
+        <v>17.32966361152545</v>
       </c>
       <c r="G12">
-        <v>1.972610704587438</v>
+        <v>20.58209868299484</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.545653754944213</v>
       </c>
       <c r="I12">
-        <v>18.47322318570792</v>
+        <v>2.831850683951305</v>
       </c>
       <c r="J12">
-        <v>7.381223633050143</v>
+        <v>7.578303927295174</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.43296631031044</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.8538225799065</v>
       </c>
       <c r="N12">
-        <v>20.60047737535903</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>32.6440306604265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.2392426173774</v>
+      </c>
+      <c r="P12">
+        <v>12.0498019405293</v>
+      </c>
+      <c r="Q12">
+        <v>12.49886604898798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.06912484624272</v>
+        <v>8.742226773317716</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.065460696637771</v>
+        <v>6.027525302400014</v>
       </c>
       <c r="E13">
-        <v>11.94117585996858</v>
+        <v>9.410422340378927</v>
       </c>
       <c r="F13">
-        <v>44.64898053517218</v>
+        <v>16.68559070830145</v>
       </c>
       <c r="G13">
-        <v>1.973209562596271</v>
+        <v>19.43625817851535</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.75819905469823</v>
       </c>
       <c r="I13">
-        <v>18.44615360195265</v>
+        <v>2.844232349072044</v>
       </c>
       <c r="J13">
-        <v>7.369116621920877</v>
+        <v>7.387552135027069</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.40175811404996</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.79482795204147</v>
       </c>
       <c r="N13">
-        <v>20.56402467484079</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>32.54660438422953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.31125457109963</v>
+      </c>
+      <c r="P13">
+        <v>12.14953351956705</v>
+      </c>
+      <c r="Q13">
+        <v>12.0064695032716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.96041265918626</v>
+        <v>8.747621162412232</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.043232648078791</v>
+        <v>6.077253619876099</v>
       </c>
       <c r="E14">
-        <v>11.85865847319023</v>
+        <v>8.737721900710337</v>
       </c>
       <c r="F14">
-        <v>44.22427633958398</v>
+        <v>16.15938851378294</v>
       </c>
       <c r="G14">
-        <v>1.975163105347242</v>
+        <v>18.53207092915719</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.657668956468246</v>
       </c>
       <c r="I14">
-        <v>18.35771691037969</v>
+        <v>2.865889743988887</v>
       </c>
       <c r="J14">
-        <v>7.329711647399807</v>
+        <v>7.253401472523263</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.41426659372233</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>17.65742287259073</v>
       </c>
       <c r="N14">
-        <v>20.4447296434782</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>32.2279401696459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.96695299296752</v>
+      </c>
+      <c r="P14">
+        <v>12.2344612604538</v>
+      </c>
+      <c r="Q14">
+        <v>11.63930693696686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89335534820419</v>
+        <v>8.710765058559247</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.029673795463409</v>
+        <v>6.074217621076871</v>
       </c>
       <c r="E15">
-        <v>11.80811102267504</v>
+        <v>8.711248914793075</v>
       </c>
       <c r="F15">
-        <v>43.96325868453144</v>
+        <v>15.99655401075508</v>
       </c>
       <c r="G15">
-        <v>1.976360196754371</v>
+        <v>18.2649156607113</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.864011453579012</v>
       </c>
       <c r="I15">
-        <v>18.30342859422268</v>
+        <v>2.880675591567802</v>
       </c>
       <c r="J15">
-        <v>7.305634998338663</v>
+        <v>7.220473493684405</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.43119466667054</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17.58114808677944</v>
       </c>
       <c r="N15">
-        <v>20.37134134399616</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>32.03202365751711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.61775224715483</v>
+      </c>
+      <c r="P15">
+        <v>12.26129189951269</v>
+      </c>
+      <c r="Q15">
+        <v>11.53959238604061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.5018940031287</v>
+        <v>8.44678858747614</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.952829848734422</v>
+        <v>5.914955829825606</v>
       </c>
       <c r="E16">
-        <v>11.51838745774569</v>
+        <v>8.689469588313967</v>
       </c>
       <c r="F16">
-        <v>42.45380350123706</v>
+        <v>15.73335674230483</v>
       </c>
       <c r="G16">
-        <v>1.983230855533017</v>
+        <v>17.93869821671634</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.599809055999257</v>
       </c>
       <c r="I16">
-        <v>17.99060724195167</v>
+        <v>2.937003288349265</v>
       </c>
       <c r="J16">
-        <v>7.168568199027789</v>
+        <v>7.236088325674308</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.55818241957625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.12585363813366</v>
       </c>
       <c r="N16">
-        <v>19.94602056483714</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>30.89793902842199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.38698902133551</v>
+      </c>
+      <c r="P16">
+        <v>12.29722583069472</v>
+      </c>
+      <c r="Q16">
+        <v>11.48968957743518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.25532470262207</v>
+        <v>8.234590813686454</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.90644386056023</v>
+        <v>5.762798526936638</v>
       </c>
       <c r="E17">
-        <v>11.34059919135278</v>
+        <v>8.860356699833041</v>
       </c>
       <c r="F17">
-        <v>41.55801237907851</v>
+        <v>15.82175617331903</v>
       </c>
       <c r="G17">
-        <v>1.987458473638516</v>
+        <v>18.18968305221959</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.870938027829919</v>
       </c>
       <c r="I17">
-        <v>17.7972772784484</v>
+        <v>2.96963366653163</v>
       </c>
       <c r="J17">
-        <v>7.085279630416095</v>
+        <v>7.320170320741804</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.64888878844051</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.84647178415884</v>
       </c>
       <c r="N17">
-        <v>19.68095489707129</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>30.1918219827319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.94464279685726</v>
+      </c>
+      <c r="P17">
+        <v>12.2814968986755</v>
+      </c>
+      <c r="Q17">
+        <v>11.65092850750847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.11114096131531</v>
+        <v>8.077445949845437</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.880038333278735</v>
+        <v>5.599779617420853</v>
       </c>
       <c r="E18">
-        <v>11.23832296704867</v>
+        <v>10.07774450009068</v>
       </c>
       <c r="F18">
-        <v>41.04918656822797</v>
+        <v>16.22668644910645</v>
       </c>
       <c r="G18">
-        <v>1.989895971672587</v>
+        <v>18.97495692872607</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.714110926458299</v>
       </c>
       <c r="I18">
-        <v>17.68559980266635</v>
+        <v>2.974014302576185</v>
       </c>
       <c r="J18">
-        <v>7.037663861899178</v>
+        <v>7.473177474538521</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.72675504331725</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.68246717320804</v>
       </c>
       <c r="N18">
-        <v>19.52701623627305</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>29.78177060295233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.36147080902589</v>
+      </c>
+      <c r="P18">
+        <v>12.22179908925171</v>
+      </c>
+      <c r="Q18">
+        <v>12.01399750958674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.06191650564071</v>
+        <v>7.917189425302035</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.871144756356775</v>
+        <v>5.446462812905738</v>
       </c>
       <c r="E19">
-        <v>11.20369150526935</v>
+        <v>12.81411539553327</v>
       </c>
       <c r="F19">
-        <v>40.87631547782048</v>
+        <v>16.82600534914929</v>
       </c>
       <c r="G19">
-        <v>1.990722387846795</v>
+        <v>20.07877874904425</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.493362655404058</v>
       </c>
       <c r="I19">
-        <v>17.64770975113495</v>
+        <v>2.97414216622071</v>
       </c>
       <c r="J19">
-        <v>7.021591495120198</v>
+        <v>7.662731987881013</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.79270273769547</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.65085758299767</v>
       </c>
       <c r="N19">
-        <v>19.47464540079022</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>29.64225434601351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.42654829841445</v>
+      </c>
+      <c r="P19">
+        <v>12.14467409190068</v>
+      </c>
+      <c r="Q19">
+        <v>12.49235449242559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.28181696041141</v>
+        <v>7.876645474226208</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.911353258378625</v>
+        <v>5.324458730963685</v>
       </c>
       <c r="E20">
-        <v>11.3595269186427</v>
+        <v>18.22503391829004</v>
       </c>
       <c r="F20">
-        <v>41.65190454903219</v>
+        <v>17.96413950692658</v>
       </c>
       <c r="G20">
-        <v>1.987007854120673</v>
+        <v>22.05661551558195</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.813883376600278</v>
       </c>
       <c r="I20">
-        <v>17.81790819761054</v>
+        <v>2.925200253484715</v>
       </c>
       <c r="J20">
-        <v>7.094115806841128</v>
+        <v>7.959512350253764</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.82500683744485</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.94824940221594</v>
       </c>
       <c r="N20">
-        <v>19.70932576861091</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>30.2673922113074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.82364870632059</v>
+      </c>
+      <c r="P20">
+        <v>12.00057262421423</v>
+      </c>
+      <c r="Q20">
+        <v>13.29891374409709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99244155991445</v>
+        <v>8.289168813101821</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.049749773184647</v>
+        <v>5.553377890429218</v>
       </c>
       <c r="E21">
-        <v>11.88289646170879</v>
+        <v>19.50671224649235</v>
       </c>
       <c r="F21">
-        <v>44.34920372612574</v>
+        <v>18.73460272565063</v>
       </c>
       <c r="G21">
-        <v>1.974589207987854</v>
+        <v>23.16004739672098</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.065065108932366</v>
       </c>
       <c r="I21">
-        <v>18.38371778730687</v>
+        <v>2.823739589997399</v>
       </c>
       <c r="J21">
-        <v>7.341273295901973</v>
+        <v>8.042289177561747</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.61725040998659</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.79212857371298</v>
       </c>
       <c r="N21">
-        <v>20.47983568721167</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>32.32169014864982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.0431140341906</v>
+      </c>
+      <c r="P21">
+        <v>11.86740685818502</v>
+      </c>
+      <c r="Q21">
+        <v>13.65109868881583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43591967862774</v>
+        <v>8.589839041856649</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.142718480573712</v>
+        <v>5.704385914514258</v>
       </c>
       <c r="E22">
-        <v>12.22480831633344</v>
+        <v>20.06853314957434</v>
       </c>
       <c r="F22">
-        <v>46.09629885231931</v>
+        <v>19.20290393847504</v>
       </c>
       <c r="G22">
-        <v>1.96649819770934</v>
+        <v>23.81625789876855</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.213722403879328</v>
       </c>
       <c r="I22">
-        <v>18.74832924437961</v>
+        <v>2.747942004355898</v>
       </c>
       <c r="J22">
-        <v>7.505481212838318</v>
+        <v>8.090521410440713</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.48651378479366</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.30776408864285</v>
       </c>
       <c r="N22">
-        <v>20.96934909802553</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>33.63156322981374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.66053765306931</v>
+      </c>
+      <c r="P22">
+        <v>11.78441998226667</v>
+      </c>
+      <c r="Q22">
+        <v>13.86121198904797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20113979645826</v>
+        <v>8.467392255160696</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.092864511710752</v>
+        <v>5.622118929229226</v>
       </c>
       <c r="E23">
-        <v>12.04233105620551</v>
+        <v>19.7775598136629</v>
       </c>
       <c r="F23">
-        <v>45.16731869163901</v>
+        <v>18.96512465138758</v>
       </c>
       <c r="G23">
-        <v>1.970815622323557</v>
+        <v>23.48776597401987</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.134785269895446</v>
       </c>
       <c r="I23">
-        <v>18.55424479086268</v>
+        <v>2.775942270562617</v>
       </c>
       <c r="J23">
-        <v>7.417588721244263</v>
+        <v>8.068518243105075</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.56445980671657</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.02058057843488</v>
       </c>
       <c r="N23">
-        <v>20.70941231798719</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>32.93534017295777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.32625252300467</v>
+      </c>
+      <c r="P23">
+        <v>11.82622626876615</v>
+      </c>
+      <c r="Q23">
+        <v>13.75842378823791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.2698473735842</v>
+        <v>7.917387259783546</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.909132903045245</v>
+        <v>5.302497030561667</v>
       </c>
       <c r="E24">
-        <v>11.35096989004879</v>
+        <v>18.62340576226089</v>
       </c>
       <c r="F24">
-        <v>41.60946727808903</v>
+        <v>18.03946452487862</v>
       </c>
       <c r="G24">
-        <v>1.987211557164181</v>
+        <v>22.1976176382225</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.829099631057065</v>
       </c>
       <c r="I24">
-        <v>17.80858259792758</v>
+        <v>2.905923395253877</v>
       </c>
       <c r="J24">
-        <v>7.090120137712939</v>
+        <v>7.985667066472181</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.84981778833595</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.91485041827743</v>
       </c>
       <c r="N24">
-        <v>19.69650411176672</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>30.23323968857018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.02034405497627</v>
+      </c>
+      <c r="P24">
+        <v>11.99220505266923</v>
+      </c>
+      <c r="Q24">
+        <v>13.36267244439824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17489577285955</v>
+        <v>7.265888923874114</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.721425641350461</v>
+        <v>4.933419696645131</v>
       </c>
       <c r="E25">
-        <v>10.60477481626622</v>
+        <v>17.29257571340228</v>
       </c>
       <c r="F25">
-        <v>37.8344578783218</v>
+        <v>17.03230575107602</v>
       </c>
       <c r="G25">
-        <v>2.005134106320972</v>
+        <v>20.78532213707134</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.484767054738175</v>
       </c>
       <c r="I25">
-        <v>16.98659684967527</v>
+        <v>3.05537508796293</v>
       </c>
       <c r="J25">
-        <v>6.747989500648892</v>
+        <v>7.910843152011547</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.16630110018538</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.63754936428009</v>
       </c>
       <c r="N25">
-        <v>18.54803743298107</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>27.39571020213854</v>
+        <v>16.50321884080804</v>
+      </c>
+      <c r="P25">
+        <v>12.17893548346536</v>
+      </c>
+      <c r="Q25">
+        <v>12.95644707144036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.845227706912457</v>
+        <v>6.631923426445692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.635144121765051</v>
+        <v>4.647894469890181</v>
       </c>
       <c r="E2">
-        <v>16.2612825298038</v>
+        <v>16.2050830700493</v>
       </c>
       <c r="F2">
-        <v>16.32165708678264</v>
+        <v>16.35277204980677</v>
       </c>
       <c r="G2">
-        <v>19.79496134909746</v>
+        <v>19.18900631440616</v>
       </c>
       <c r="H2">
-        <v>2.218429341507457</v>
+        <v>2.220379257750068</v>
       </c>
       <c r="I2">
-        <v>3.14525947713363</v>
+        <v>2.931004514979701</v>
       </c>
       <c r="J2">
-        <v>7.87794407424384</v>
+        <v>8.545492196889551</v>
       </c>
       <c r="K2">
-        <v>13.42949929257415</v>
+        <v>12.92533833506364</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.72195120615473</v>
       </c>
       <c r="M2">
-        <v>14.58654364142039</v>
+        <v>8.331575695558342</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.27295636442641</v>
+        <v>14.46962425003678</v>
       </c>
       <c r="P2">
-        <v>12.31932608424994</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.70171472847357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.31008875370597</v>
+      </c>
+      <c r="R2">
+        <v>12.20870279042281</v>
+      </c>
+      <c r="S2">
+        <v>12.74219448386339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.472127242710695</v>
+        <v>6.296877008828582</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.424105438460387</v>
+        <v>4.432010392275791</v>
       </c>
       <c r="E3">
-        <v>15.50814486244725</v>
+        <v>15.46505476026575</v>
       </c>
       <c r="F3">
-        <v>15.82300360223219</v>
+        <v>15.86908330704151</v>
       </c>
       <c r="G3">
-        <v>19.08761608155207</v>
+        <v>18.47668143020692</v>
       </c>
       <c r="H3">
-        <v>2.0292049779077</v>
+        <v>2.033957703308955</v>
       </c>
       <c r="I3">
-        <v>3.226384871225713</v>
+        <v>2.998676297657331</v>
       </c>
       <c r="J3">
-        <v>7.85673472223229</v>
+        <v>8.504933157545738</v>
       </c>
       <c r="K3">
-        <v>13.60047857281158</v>
+        <v>13.08458177964665</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.87073579543999</v>
       </c>
       <c r="M3">
-        <v>13.85287981142898</v>
+        <v>8.481291618317874</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.39411696431632</v>
+        <v>13.70998327849437</v>
       </c>
       <c r="P3">
-        <v>12.42100750436306</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.52606826555998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.42374729667871</v>
+      </c>
+      <c r="R3">
+        <v>12.30085658082244</v>
+      </c>
+      <c r="S3">
+        <v>12.57512325248882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.226690644331896</v>
+        <v>6.074132150568077</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.288767082904217</v>
+        <v>4.2935730606633</v>
       </c>
       <c r="E4">
-        <v>15.02474136495083</v>
+        <v>14.99004701710515</v>
       </c>
       <c r="F4">
-        <v>15.51794839990331</v>
+        <v>15.57278694284369</v>
       </c>
       <c r="G4">
-        <v>18.65224508922386</v>
+        <v>18.03930818450138</v>
       </c>
       <c r="H4">
-        <v>1.908710700352432</v>
+        <v>1.915241413617488</v>
       </c>
       <c r="I4">
-        <v>3.278962717666957</v>
+        <v>3.042906048241046</v>
       </c>
       <c r="J4">
-        <v>7.846841002056347</v>
+        <v>8.481383542777694</v>
       </c>
       <c r="K4">
-        <v>13.70762389146383</v>
+        <v>13.18427715247396</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.9710596042379</v>
       </c>
       <c r="M4">
-        <v>13.38262154599686</v>
+        <v>8.582789646911912</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.82766602810716</v>
+        <v>13.22288935591797</v>
       </c>
       <c r="P4">
-        <v>12.48547089016495</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.42350600307781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.85257492319573</v>
+      </c>
+      <c r="R4">
+        <v>12.35972104302516</v>
+      </c>
+      <c r="S4">
+        <v>12.47724040700845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.109968629650858</v>
+        <v>5.967344734701028</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.232896478066762</v>
+        <v>4.236362131019792</v>
       </c>
       <c r="E5">
-        <v>14.82024405498826</v>
+        <v>14.78920114975661</v>
       </c>
       <c r="F5">
-        <v>15.39034348162157</v>
+        <v>15.44887110619949</v>
       </c>
       <c r="G5">
-        <v>18.46793212586064</v>
+        <v>17.85471687054507</v>
       </c>
       <c r="H5">
-        <v>1.858461877001524</v>
+        <v>1.865735265761427</v>
       </c>
       <c r="I5">
-        <v>3.303999320456331</v>
+        <v>3.065030409544975</v>
       </c>
       <c r="J5">
-        <v>7.842469320292164</v>
+        <v>8.471121587972332</v>
       </c>
       <c r="K5">
-        <v>13.7493343441851</v>
+        <v>13.22284704729776</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.01019839588434</v>
       </c>
       <c r="M5">
-        <v>13.1906569083893</v>
+        <v>8.626860727908488</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.59269475909348</v>
+        <v>13.02361453053844</v>
       </c>
       <c r="P5">
-        <v>12.51247558280683</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.38021534221274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.61549318741915</v>
+      </c>
+      <c r="R5">
+        <v>12.38447392196863</v>
+      </c>
+      <c r="S5">
+        <v>12.43588823520873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.074862109664096</v>
+        <v>5.935013642679062</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.224385870571025</v>
+        <v>4.227567274120963</v>
       </c>
       <c r="E6">
-        <v>14.78308862998995</v>
+        <v>14.75283852902325</v>
       </c>
       <c r="F6">
-        <v>15.36459996591035</v>
+        <v>15.42403309435358</v>
       </c>
       <c r="G6">
-        <v>18.42890733242848</v>
+        <v>17.81600544129172</v>
       </c>
       <c r="H6">
-        <v>1.849991487242778</v>
+        <v>1.857393194836693</v>
       </c>
       <c r="I6">
-        <v>3.311924904690423</v>
+        <v>3.073148908653001</v>
       </c>
       <c r="J6">
-        <v>7.840432689275067</v>
+        <v>8.468211199018485</v>
       </c>
       <c r="K6">
-        <v>13.7532603465692</v>
+        <v>13.2262011087093</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.0120367399612</v>
       </c>
       <c r="M6">
-        <v>13.16402774520286</v>
+        <v>8.634710017646938</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.55633512941328</v>
+        <v>12.99546252854739</v>
       </c>
       <c r="P6">
-        <v>12.51727751831702</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.36964373934455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.57857727449742</v>
+      </c>
+      <c r="R6">
+        <v>12.38886774685877</v>
+      </c>
+      <c r="S6">
+        <v>12.42585467534733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.183672122973436</v>
+        <v>6.036744203826044</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.290313278531678</v>
+        <v>4.297937246747991</v>
       </c>
       <c r="E7">
-        <v>15.01424811132118</v>
+        <v>14.98200666174079</v>
       </c>
       <c r="F7">
-        <v>15.50384405736581</v>
+        <v>15.54550073218337</v>
       </c>
       <c r="G7">
-        <v>18.62705610093182</v>
+        <v>18.11436837243189</v>
       </c>
       <c r="H7">
-        <v>1.907878928440156</v>
+        <v>1.914054513175473</v>
       </c>
       <c r="I7">
-        <v>3.289120712511288</v>
+        <v>3.054948843996253</v>
       </c>
       <c r="J7">
-        <v>7.843088860960405</v>
+        <v>8.438024491345503</v>
       </c>
       <c r="K7">
-        <v>13.69995043908251</v>
+        <v>13.1755585376578</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.95784098454088</v>
       </c>
       <c r="M7">
-        <v>13.39493087912441</v>
+        <v>8.583802651714539</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.83268173514616</v>
+        <v>13.22806429324236</v>
       </c>
       <c r="P7">
-        <v>12.48669678917493</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.41351848707139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.85383968567798</v>
+      </c>
+      <c r="R7">
+        <v>12.36122854853703</v>
+      </c>
+      <c r="S7">
+        <v>12.45756118017086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.668758130863393</v>
+        <v>6.480070914901531</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.566490571186719</v>
+        <v>4.58687776347356</v>
       </c>
       <c r="E8">
-        <v>15.99639086704849</v>
+        <v>15.95142061915527</v>
       </c>
       <c r="F8">
-        <v>16.1339034395239</v>
+        <v>16.12621595004988</v>
       </c>
       <c r="G8">
-        <v>19.52285207323872</v>
+        <v>19.23225724148382</v>
       </c>
       <c r="H8">
-        <v>2.153884331093826</v>
+        <v>2.15563897886192</v>
       </c>
       <c r="I8">
-        <v>3.184988153776037</v>
+        <v>2.968822798927957</v>
       </c>
       <c r="J8">
-        <v>7.865157703892864</v>
+        <v>8.39659853048351</v>
       </c>
       <c r="K8">
-        <v>13.47746324230436</v>
+        <v>12.96678108897254</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.75465595528377</v>
       </c>
       <c r="M8">
-        <v>14.35637870386376</v>
+        <v>8.378619334138111</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.98558257743124</v>
+        <v>14.21017376990683</v>
       </c>
       <c r="P8">
-        <v>12.35546408702644</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.62792581213501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.00966462006861</v>
+      </c>
+      <c r="R8">
+        <v>12.24305823220493</v>
+      </c>
+      <c r="S8">
+        <v>12.63847506643486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.555198777091046</v>
+        <v>7.267637232338685</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.05732324482784</v>
+        <v>5.090843541850172</v>
       </c>
       <c r="E9">
-        <v>17.76395959832154</v>
+        <v>17.68901644905323</v>
       </c>
       <c r="F9">
-        <v>17.39195633904079</v>
+        <v>17.33555168036289</v>
       </c>
       <c r="G9">
-        <v>21.29868590740587</v>
+        <v>21.0801439107713</v>
       </c>
       <c r="H9">
-        <v>2.602970429860488</v>
+        <v>2.597829689172671</v>
       </c>
       <c r="I9">
-        <v>2.986660701948759</v>
+        <v>2.80176077000293</v>
       </c>
       <c r="J9">
-        <v>7.940524326347951</v>
+        <v>8.474943071178364</v>
       </c>
       <c r="K9">
-        <v>13.07191447302688</v>
+        <v>12.58910549771627</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.45087701854601</v>
       </c>
       <c r="M9">
-        <v>16.05597198959062</v>
+        <v>8.056075436527518</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.01663016286804</v>
+        <v>15.96704314326122</v>
       </c>
       <c r="P9">
-        <v>12.11220615996847</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.10616084919305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.05772100372814</v>
+      </c>
+      <c r="R9">
+        <v>12.02614601255804</v>
+      </c>
+      <c r="S9">
+        <v>13.08363420779029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.121726659765415</v>
+        <v>7.782999018410786</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.407273778758235</v>
+        <v>5.463649576861188</v>
       </c>
       <c r="E10">
-        <v>18.44195953807392</v>
+        <v>18.35700803010619</v>
       </c>
       <c r="F10">
-        <v>18.21694405193073</v>
+        <v>18.05644061542007</v>
       </c>
       <c r="G10">
-        <v>22.41428891798457</v>
+        <v>22.73748117839846</v>
       </c>
       <c r="H10">
-        <v>2.890763609461648</v>
+        <v>2.879190249926034</v>
       </c>
       <c r="I10">
-        <v>2.86165256700636</v>
+        <v>2.700852550017427</v>
       </c>
       <c r="J10">
-        <v>7.984186222174543</v>
+        <v>8.296682081131419</v>
       </c>
       <c r="K10">
-        <v>12.76858509754647</v>
+        <v>12.30505934364127</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.2656346091104</v>
       </c>
       <c r="M10">
-        <v>17.20462460088367</v>
+        <v>7.851738696882579</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.09252082433975</v>
+        <v>17.12041886703844</v>
       </c>
       <c r="P10">
-        <v>11.95381553982276</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.41000986827106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.12929219438009</v>
+      </c>
+      <c r="R10">
+        <v>11.89301860589242</v>
+      </c>
+      <c r="S10">
+        <v>13.30761321721811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.439859272635086</v>
+        <v>8.170004823580074</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.719888100985864</v>
+        <v>5.807644475089837</v>
       </c>
       <c r="E11">
-        <v>14.55835349896307</v>
+        <v>14.47983965347907</v>
       </c>
       <c r="F11">
-        <v>17.82837771531122</v>
+        <v>17.52416577287556</v>
       </c>
       <c r="G11">
-        <v>21.54306125949264</v>
+        <v>22.95558772970604</v>
       </c>
       <c r="H11">
-        <v>3.48364941010715</v>
+        <v>3.470459956663683</v>
       </c>
       <c r="I11">
-        <v>2.841741196526786</v>
+        <v>2.69343058665124</v>
       </c>
       <c r="J11">
-        <v>7.76933393987298</v>
+        <v>7.682513459679255</v>
       </c>
       <c r="K11">
-        <v>12.53921726823117</v>
+        <v>12.10767795119682</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.16195156564461</v>
       </c>
       <c r="M11">
-        <v>17.69324778774368</v>
+        <v>7.685944388696983</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.13704608280072</v>
+        <v>17.53611754509221</v>
       </c>
       <c r="P11">
-        <v>11.98207791874927</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.95037731382493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.13815922319949</v>
+      </c>
+      <c r="R11">
+        <v>11.94528219805912</v>
+      </c>
+      <c r="S11">
+        <v>12.73886383469103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.648603499738961</v>
+        <v>8.435368752705026</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.910990348680718</v>
+        <v>6.012237566783149</v>
       </c>
       <c r="E12">
-        <v>11.56447825662239</v>
+        <v>11.47341487005709</v>
       </c>
       <c r="F12">
-        <v>17.32966361152545</v>
+        <v>16.96849329153153</v>
       </c>
       <c r="G12">
-        <v>20.58209868299484</v>
+        <v>22.50901002022507</v>
       </c>
       <c r="H12">
-        <v>4.545653754944213</v>
+        <v>4.534802627400218</v>
       </c>
       <c r="I12">
-        <v>2.831850683951305</v>
+        <v>2.685678334374562</v>
       </c>
       <c r="J12">
-        <v>7.578303927295174</v>
+        <v>7.359341000645708</v>
       </c>
       <c r="K12">
-        <v>12.43296631031044</v>
+        <v>12.02347807217024</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.13122820166024</v>
       </c>
       <c r="M12">
-        <v>17.8538225799065</v>
+        <v>7.600255940112138</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.2392426173774</v>
+        <v>17.65258910178697</v>
       </c>
       <c r="P12">
-        <v>12.0498019405293</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.49886604898798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.22115622475904</v>
+      </c>
+      <c r="R12">
+        <v>12.0250607535711</v>
+      </c>
+      <c r="S12">
+        <v>12.2475193220902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.742226773317716</v>
+        <v>8.58120460562685</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.027525302400014</v>
+        <v>6.122064763317063</v>
       </c>
       <c r="E13">
-        <v>9.410422340378927</v>
+        <v>9.291031361703331</v>
       </c>
       <c r="F13">
-        <v>16.68559070830145</v>
+        <v>16.36251685487872</v>
       </c>
       <c r="G13">
-        <v>19.43625817851535</v>
+        <v>21.25997556495385</v>
       </c>
       <c r="H13">
-        <v>5.75819905469823</v>
+        <v>5.750373100667199</v>
       </c>
       <c r="I13">
-        <v>2.844232349072044</v>
+        <v>2.695134955590038</v>
       </c>
       <c r="J13">
-        <v>7.387552135027069</v>
+        <v>7.26795298351604</v>
       </c>
       <c r="K13">
-        <v>12.40175811404996</v>
+        <v>12.00661568474168</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.13040899902085</v>
       </c>
       <c r="M13">
-        <v>17.79482795204147</v>
+        <v>7.568569570189311</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.31125457109963</v>
+        <v>17.57977708406601</v>
       </c>
       <c r="P13">
-        <v>12.14953351956705</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.0064695032716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.2322782507593</v>
+      </c>
+      <c r="R13">
+        <v>12.12261144194981</v>
+      </c>
+      <c r="S13">
+        <v>11.7902465425225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.747621162412232</v>
+        <v>8.625528295260867</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.077253619876099</v>
+        <v>6.157802498912921</v>
       </c>
       <c r="E14">
-        <v>8.737721900710337</v>
+        <v>8.602059062096453</v>
       </c>
       <c r="F14">
-        <v>16.15938851378294</v>
+        <v>15.90493836119558</v>
       </c>
       <c r="G14">
-        <v>18.53207092915719</v>
+        <v>20.01011958902784</v>
       </c>
       <c r="H14">
-        <v>6.657668956468246</v>
+        <v>6.651786962727281</v>
       </c>
       <c r="I14">
-        <v>2.865889743988887</v>
+        <v>2.713121745050824</v>
       </c>
       <c r="J14">
-        <v>7.253401472523263</v>
+        <v>7.292166432156104</v>
       </c>
       <c r="K14">
-        <v>12.41426659372233</v>
+        <v>12.02348093710219</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.13896039764357</v>
       </c>
       <c r="M14">
-        <v>17.65742287259073</v>
+        <v>7.573379300643951</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.96695299296752</v>
+        <v>17.44555659465979</v>
       </c>
       <c r="P14">
-        <v>12.2344612604538</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.63930693696686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.88597840147566</v>
+      </c>
+      <c r="R14">
+        <v>12.19827267528058</v>
+      </c>
+      <c r="S14">
+        <v>11.47950462784115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.710765058559247</v>
+        <v>8.598650471143626</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.074217621076871</v>
+        <v>6.147315732607154</v>
       </c>
       <c r="E15">
-        <v>8.711248914793075</v>
+        <v>8.575240924351075</v>
       </c>
       <c r="F15">
-        <v>15.99655401075508</v>
+        <v>15.7769200791348</v>
       </c>
       <c r="G15">
-        <v>18.2649156607113</v>
+        <v>19.54161549625372</v>
       </c>
       <c r="H15">
-        <v>6.864011453579012</v>
+        <v>6.858733364461774</v>
       </c>
       <c r="I15">
-        <v>2.880675591567802</v>
+        <v>2.726790926141522</v>
       </c>
       <c r="J15">
-        <v>7.220473493684405</v>
+        <v>7.336264010278501</v>
       </c>
       <c r="K15">
-        <v>12.43119466667054</v>
+        <v>12.0395251664851</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.14422612835691</v>
       </c>
       <c r="M15">
-        <v>17.58114808677944</v>
+        <v>7.586133927134471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.61775224715483</v>
+        <v>17.37536553418537</v>
       </c>
       <c r="P15">
-        <v>12.26129189951269</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.53959238604061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.53818288223738</v>
+      </c>
+      <c r="R15">
+        <v>12.21967335215656</v>
+      </c>
+      <c r="S15">
+        <v>11.40704340608765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.44678858747614</v>
+        <v>8.333110412327601</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.914955829825606</v>
+        <v>5.955067309859444</v>
       </c>
       <c r="E16">
-        <v>8.689469588313967</v>
+        <v>8.568892718566104</v>
       </c>
       <c r="F16">
-        <v>15.73335674230483</v>
+        <v>15.66128015652789</v>
       </c>
       <c r="G16">
-        <v>17.93869821671634</v>
+        <v>18.24535904610488</v>
       </c>
       <c r="H16">
-        <v>6.599809055999257</v>
+        <v>6.596375635767182</v>
       </c>
       <c r="I16">
-        <v>2.937003288349265</v>
+        <v>2.773673045745307</v>
       </c>
       <c r="J16">
-        <v>7.236088325674308</v>
+        <v>7.687240933318199</v>
       </c>
       <c r="K16">
-        <v>12.55818241957625</v>
+        <v>12.15058860702741</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.17545202344931</v>
       </c>
       <c r="M16">
-        <v>17.12585363813366</v>
+        <v>7.695145312315915</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.38698902133551</v>
+        <v>16.96537839860628</v>
       </c>
       <c r="P16">
-        <v>12.29722583069472</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.48968957743518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.32469188308953</v>
+      </c>
+      <c r="R16">
+        <v>12.23101240223421</v>
+      </c>
+      <c r="S16">
+        <v>11.46691725084027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.234590813686454</v>
+        <v>8.103421965181875</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.762798526936638</v>
+        <v>5.789613948835643</v>
       </c>
       <c r="E17">
-        <v>8.860356699833041</v>
+        <v>8.749475484990125</v>
       </c>
       <c r="F17">
-        <v>15.82175617331903</v>
+        <v>15.80716866184356</v>
       </c>
       <c r="G17">
-        <v>18.18968305221959</v>
+        <v>18.07069430226382</v>
       </c>
       <c r="H17">
-        <v>5.870938027829919</v>
+        <v>5.868141713358696</v>
       </c>
       <c r="I17">
-        <v>2.96963366653163</v>
+        <v>2.801243300951692</v>
       </c>
       <c r="J17">
-        <v>7.320170320741804</v>
+        <v>7.914455017896984</v>
       </c>
       <c r="K17">
-        <v>12.64888878844051</v>
+        <v>12.22955319314428</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.20500740973001</v>
       </c>
       <c r="M17">
-        <v>16.84647178415884</v>
+        <v>7.772582341194839</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.94464279685726</v>
+        <v>16.71133626987337</v>
       </c>
       <c r="P17">
-        <v>12.2814968986755</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.65092850750847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.89513227552947</v>
+      </c>
+      <c r="R17">
+        <v>12.20523323332033</v>
+      </c>
+      <c r="S17">
+        <v>11.66903901141136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.077445949845437</v>
+        <v>7.905882109209402</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.599779617420853</v>
+        <v>5.623263012131609</v>
       </c>
       <c r="E18">
-        <v>10.07774450009068</v>
+        <v>9.977228182710697</v>
       </c>
       <c r="F18">
-        <v>16.22668644910645</v>
+        <v>16.22499247107356</v>
       </c>
       <c r="G18">
-        <v>18.97495692872607</v>
+        <v>18.66820871678501</v>
       </c>
       <c r="H18">
-        <v>4.714110926458299</v>
+        <v>4.711113556583763</v>
       </c>
       <c r="I18">
-        <v>2.974014302576185</v>
+        <v>2.801695898742201</v>
       </c>
       <c r="J18">
-        <v>7.473177474538521</v>
+        <v>8.118719870938154</v>
       </c>
       <c r="K18">
-        <v>12.72675504331725</v>
+        <v>12.29641018417636</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.24075113957064</v>
       </c>
       <c r="M18">
-        <v>16.68246717320804</v>
+        <v>7.832752562324485</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.36147080902589</v>
+        <v>16.56969510682865</v>
       </c>
       <c r="P18">
-        <v>12.22179908925171</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.01399750958674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.39445071390141</v>
+      </c>
+      <c r="R18">
+        <v>12.14318941730198</v>
+      </c>
+      <c r="S18">
+        <v>12.03959367442413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.917189425302035</v>
+        <v>7.691659593858874</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.446462812905738</v>
+        <v>5.472017059666441</v>
       </c>
       <c r="E19">
-        <v>12.81411539553327</v>
+        <v>12.72310504551688</v>
       </c>
       <c r="F19">
-        <v>16.82600534914929</v>
+        <v>16.81326133166053</v>
       </c>
       <c r="G19">
-        <v>20.07877874904425</v>
+        <v>19.7122251481412</v>
       </c>
       <c r="H19">
-        <v>3.493362655404058</v>
+        <v>3.48912565661646</v>
       </c>
       <c r="I19">
-        <v>2.97414216622071</v>
+        <v>2.803448065778731</v>
       </c>
       <c r="J19">
-        <v>7.662731987881013</v>
+        <v>8.310360507635812</v>
       </c>
       <c r="K19">
-        <v>12.79270273769547</v>
+        <v>12.35035937550638</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.27787761395366</v>
       </c>
       <c r="M19">
-        <v>16.65085758299767</v>
+        <v>7.876661930388505</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.42654829841445</v>
+        <v>16.55943149179796</v>
       </c>
       <c r="P19">
-        <v>12.14467409190068</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.49235449242559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.46660754555083</v>
+      </c>
+      <c r="R19">
+        <v>12.06706026208411</v>
+      </c>
+      <c r="S19">
+        <v>12.50764014864152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.876645474226208</v>
+        <v>7.553618490493899</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.324458730963685</v>
+        <v>5.365463440858701</v>
       </c>
       <c r="E20">
-        <v>18.22503391829004</v>
+        <v>18.13784621338366</v>
       </c>
       <c r="F20">
-        <v>17.96413950692658</v>
+        <v>17.87711146646586</v>
       </c>
       <c r="G20">
-        <v>22.05661551558195</v>
+        <v>21.94239308546334</v>
       </c>
       <c r="H20">
-        <v>2.813883376600278</v>
+        <v>2.805077025682231</v>
       </c>
       <c r="I20">
-        <v>2.925200253484715</v>
+        <v>2.763823297527058</v>
       </c>
       <c r="J20">
-        <v>7.959512350253764</v>
+        <v>8.466191945592016</v>
       </c>
       <c r="K20">
-        <v>12.82500683744485</v>
+        <v>12.36287198462346</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.29830334750718</v>
       </c>
       <c r="M20">
-        <v>16.94824940221594</v>
+        <v>7.889434893170646</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.82364870632059</v>
+        <v>16.87891825856521</v>
       </c>
       <c r="P20">
-        <v>12.00057262421423</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.29891374409709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.86916691287825</v>
+      </c>
+      <c r="R20">
+        <v>11.93073244760915</v>
+      </c>
+      <c r="S20">
+        <v>13.25426649115603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.289168813101821</v>
+        <v>7.946449096438181</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.553377890429218</v>
+        <v>5.658781295531956</v>
       </c>
       <c r="E21">
-        <v>19.50671224649235</v>
+        <v>19.44413072550998</v>
       </c>
       <c r="F21">
-        <v>18.73460272565063</v>
+        <v>18.33596284559017</v>
       </c>
       <c r="G21">
-        <v>23.16004739672098</v>
+        <v>24.99628016527923</v>
       </c>
       <c r="H21">
-        <v>3.065065108932366</v>
+        <v>3.045984783980275</v>
       </c>
       <c r="I21">
-        <v>2.823739589997399</v>
+        <v>2.682333312856121</v>
       </c>
       <c r="J21">
-        <v>8.042289177561747</v>
+        <v>7.712881466181075</v>
       </c>
       <c r="K21">
-        <v>12.61725040998659</v>
+        <v>12.15302451111605</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.18322817968838</v>
       </c>
       <c r="M21">
-        <v>17.79212857371298</v>
+        <v>7.744222716919517</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.0431140341906</v>
+        <v>17.6373175097208</v>
       </c>
       <c r="P21">
-        <v>11.86740685818502</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.65109868881583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.04134966791603</v>
+      </c>
+      <c r="R21">
+        <v>11.83126106572817</v>
+      </c>
+      <c r="S21">
+        <v>13.35839366879896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.589839041856649</v>
+        <v>8.237205703109559</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.704385914514258</v>
+        <v>5.853795676777342</v>
       </c>
       <c r="E22">
-        <v>20.06853314957434</v>
+        <v>20.02466728008511</v>
       </c>
       <c r="F22">
-        <v>19.20290393847504</v>
+        <v>18.58863223363118</v>
       </c>
       <c r="G22">
-        <v>23.81625789876855</v>
+        <v>26.99563308797255</v>
       </c>
       <c r="H22">
-        <v>3.213722403879328</v>
+        <v>3.188115533657994</v>
       </c>
       <c r="I22">
-        <v>2.747942004355898</v>
+        <v>2.616778575818355</v>
       </c>
       <c r="J22">
-        <v>8.090521410440713</v>
+        <v>7.231449985122912</v>
       </c>
       <c r="K22">
-        <v>12.48651378479366</v>
+        <v>12.01941565949618</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.12016442150149</v>
       </c>
       <c r="M22">
-        <v>18.30776408864285</v>
+        <v>7.658608715175394</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.66053765306931</v>
+        <v>18.09233383848431</v>
       </c>
       <c r="P22">
-        <v>11.78441998226667</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.86121198904797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.62585529010408</v>
+      </c>
+      <c r="R22">
+        <v>11.772876456944</v>
+      </c>
+      <c r="S22">
+        <v>13.39304377522264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.467392255160696</v>
+        <v>8.112313062543768</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.622118929229226</v>
+        <v>5.741848652160117</v>
       </c>
       <c r="E23">
-        <v>19.7775598136629</v>
+        <v>19.71858658471372</v>
       </c>
       <c r="F23">
-        <v>18.96512465138758</v>
+        <v>18.49647397184689</v>
       </c>
       <c r="G23">
-        <v>23.48776597401987</v>
+        <v>25.73842840062805</v>
       </c>
       <c r="H23">
-        <v>3.134785269895446</v>
+        <v>3.113274538622162</v>
       </c>
       <c r="I23">
-        <v>2.775942270562617</v>
+        <v>2.636634850685548</v>
       </c>
       <c r="J23">
-        <v>8.068518243105075</v>
+        <v>7.564684961656893</v>
       </c>
       <c r="K23">
-        <v>12.56445980671657</v>
+        <v>12.09837303975063</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.15616177553037</v>
       </c>
       <c r="M23">
-        <v>18.02058057843488</v>
+        <v>7.712880248151384</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.32625252300467</v>
+        <v>17.85081077788701</v>
       </c>
       <c r="P23">
-        <v>11.82622626876615</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.75842378823791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.31581538803381</v>
+      </c>
+      <c r="R23">
+        <v>11.79909455579528</v>
+      </c>
+      <c r="S23">
+        <v>13.40868725553764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.917387259783546</v>
+        <v>7.583323145643305</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.302497030561667</v>
+        <v>5.343522814409287</v>
       </c>
       <c r="E24">
-        <v>18.62340576226089</v>
+        <v>18.53529011994821</v>
       </c>
       <c r="F24">
-        <v>18.03946452487862</v>
+        <v>17.95193265855431</v>
       </c>
       <c r="G24">
-        <v>22.1976176382225</v>
+        <v>22.06265917111969</v>
       </c>
       <c r="H24">
-        <v>2.829099631057065</v>
+        <v>2.820307393986951</v>
       </c>
       <c r="I24">
-        <v>2.905923395253877</v>
+        <v>2.740681784345978</v>
       </c>
       <c r="J24">
-        <v>7.985667066472181</v>
+        <v>8.496988448055033</v>
       </c>
       <c r="K24">
-        <v>12.84981778833595</v>
+        <v>12.38314808425921</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.31256309504834</v>
       </c>
       <c r="M24">
-        <v>16.91485041827743</v>
+        <v>7.906214285887385</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.02034405497627</v>
+        <v>16.84944554471194</v>
       </c>
       <c r="P24">
-        <v>11.99220505266923</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.36267244439824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.06779931746531</v>
+      </c>
+      <c r="R24">
+        <v>11.92165572200472</v>
+      </c>
+      <c r="S24">
+        <v>13.31731442770715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.265888923874114</v>
+        <v>7.007449233442569</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.933419696645131</v>
+        <v>4.959455678528829</v>
       </c>
       <c r="E25">
-        <v>17.29257571340228</v>
+        <v>17.22366518833066</v>
       </c>
       <c r="F25">
-        <v>17.03230575107602</v>
+        <v>17.00896548038058</v>
       </c>
       <c r="G25">
-        <v>20.78532213707134</v>
+        <v>20.42138025173457</v>
       </c>
       <c r="H25">
-        <v>2.484767054738175</v>
+        <v>2.481930943307593</v>
       </c>
       <c r="I25">
-        <v>3.05537508796293</v>
+        <v>2.865188263343145</v>
       </c>
       <c r="J25">
-        <v>7.910843152011547</v>
+        <v>8.50185491879029</v>
       </c>
       <c r="K25">
-        <v>13.16630110018538</v>
+        <v>12.67887406476563</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.51393600727089</v>
       </c>
       <c r="M25">
-        <v>15.63754936428009</v>
+        <v>8.129512451270397</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.50321884080804</v>
+        <v>15.54045716322647</v>
       </c>
       <c r="P25">
-        <v>12.17893548346536</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.95644707144036</v>
+        <v>16.54292947981722</v>
+      </c>
+      <c r="R25">
+        <v>12.08473989672017</v>
+      </c>
+      <c r="S25">
+        <v>12.95854381822251</v>
       </c>
     </row>
   </sheetData>
